--- a/lista_z_publikacji.xlsx
+++ b/lista_z_publikacji.xlsx
@@ -11797,12 +11797,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12043,57 +12051,57 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -19932,10 +19940,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:H650"/>
+  <dimension ref="D1:H650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A621" workbookViewId="0">
-      <selection activeCell="F645" sqref="F645:F646"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19945,7 +19953,7 @@
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:8" ht="58.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:8" ht="58.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="15"/>
       <c r="F1" s="16" t="s">
         <v>650</v>
@@ -19957,7 +19965,10 @@
         <v>652</v>
       </c>
     </row>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
         <v>0</v>
@@ -19969,7 +19980,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
         <v>3</v>
@@ -19981,7 +19995,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>5</v>
@@ -19993,7 +20010,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
         <v>4</v>
@@ -20005,7 +20025,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
@@ -20017,7 +20040,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>6</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="s">
         <v>12</v>
@@ -20029,7 +20055,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>14</v>
@@ -20041,7 +20070,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>8</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
         <v>15</v>
@@ -20053,7 +20085,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>9</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
         <v>17</v>
@@ -20065,7 +20100,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>10</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
         <v>19</v>
@@ -20077,7 +20115,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>11</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5" t="s">
         <v>20</v>
@@ -20089,7 +20130,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>12</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
         <v>21</v>
@@ -20101,7 +20145,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>13</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="5" t="s">
         <v>16</v>
@@ -20113,7 +20160,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>14</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5" t="s">
         <v>23</v>
@@ -20125,7 +20175,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>15</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5" t="s">
         <v>25</v>
@@ -20137,7 +20190,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>16</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
         <v>28</v>
@@ -20149,7 +20205,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>17</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="5" t="s">
         <v>28</v>
@@ -20161,7 +20220,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>18</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5" t="s">
         <v>31</v>
@@ -20173,7 +20235,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>19</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="5" t="s">
         <v>31</v>
@@ -20185,7 +20250,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>20</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="5" t="s">
         <v>32</v>
@@ -20197,7 +20265,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>21</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5" t="s">
         <v>34</v>
@@ -20209,7 +20280,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>22</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="5" t="s">
         <v>34</v>
@@ -20221,7 +20295,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>23</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="5" t="s">
         <v>34</v>
@@ -20233,7 +20310,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>24</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5" t="s">
         <v>34</v>
@@ -20245,7 +20325,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>25</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="5" t="s">
         <v>34</v>
@@ -20257,7 +20340,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>26</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5" t="s">
         <v>34</v>
@@ -20269,7 +20355,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>27</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5" t="s">
         <v>34</v>
@@ -20281,7 +20370,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>28</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="5" t="s">
         <v>34</v>
@@ -20293,7 +20385,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>29</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
         <v>34</v>
@@ -20305,7 +20400,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>30</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="5" t="s">
         <v>34</v>
@@ -20317,7 +20415,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>31</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="5" t="s">
         <v>34</v>
@@ -20329,7 +20430,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>32</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="5" t="s">
         <v>34</v>
@@ -20341,7 +20445,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>33</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5" t="s">
         <v>34</v>
@@ -20353,7 +20460,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>34</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5" t="s">
         <v>34</v>
@@ -20365,7 +20475,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>35</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="5" t="s">
         <v>34</v>
@@ -20377,7 +20490,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>36</v>
+      </c>
       <c r="E37" s="4"/>
       <c r="F37" s="5" t="s">
         <v>34</v>
@@ -20389,7 +20505,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>37</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>34</v>
@@ -20401,7 +20520,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>38</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="5" t="s">
         <v>34</v>
@@ -20413,7 +20535,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>39</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
         <v>34</v>
@@ -20425,7 +20550,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>40</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>34</v>
@@ -20437,7 +20565,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>41</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="5" t="s">
         <v>34</v>
@@ -20449,7 +20580,10 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>42</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="5" t="s">
         <v>34</v>
@@ -20461,7 +20595,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>43</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="5" t="s">
         <v>34</v>
@@ -20473,7 +20610,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>44</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="5" t="s">
         <v>34</v>
@@ -20485,7 +20625,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>45</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="5" t="s">
         <v>60</v>
@@ -20497,7 +20640,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>46</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="5" t="s">
         <v>61</v>
@@ -20509,7 +20655,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>47</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="5" t="s">
         <v>61</v>
@@ -20521,7 +20670,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>48</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="5" t="s">
         <v>61</v>
@@ -20533,7 +20685,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>49</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="5" t="s">
         <v>63</v>
@@ -20545,7 +20700,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>50</v>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="5" t="s">
         <v>64</v>
@@ -20557,7 +20715,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>51</v>
+      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="5" t="s">
         <v>65</v>
@@ -20569,7 +20730,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>52</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="5" t="s">
         <v>66</v>
@@ -20581,7 +20745,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>53</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="5" t="s">
         <v>67</v>
@@ -20593,7 +20760,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>54</v>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="5" t="s">
         <v>69</v>
@@ -20605,7 +20775,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>55</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="5" t="s">
         <v>69</v>
@@ -20617,7 +20790,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>56</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="5" t="s">
         <v>70</v>
@@ -20629,7 +20805,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>57</v>
+      </c>
       <c r="E58" s="4"/>
       <c r="F58" s="5" t="s">
         <v>70</v>
@@ -20641,7 +20820,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>58</v>
+      </c>
       <c r="E59" s="4"/>
       <c r="F59" s="5" t="s">
         <v>71</v>
@@ -20653,7 +20835,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>59</v>
+      </c>
       <c r="E60" s="4"/>
       <c r="F60" s="5" t="s">
         <v>72</v>
@@ -20665,7 +20850,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>60</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="5" t="s">
         <v>73</v>
@@ -20677,7 +20865,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>61</v>
+      </c>
       <c r="E62" s="4"/>
       <c r="F62" s="5" t="s">
         <v>74</v>
@@ -20689,7 +20880,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>62</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="5" t="s">
         <v>75</v>
@@ -20701,7 +20895,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>63</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="5" t="s">
         <v>76</v>
@@ -20713,7 +20910,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>64</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="5" t="s">
         <v>77</v>
@@ -20725,7 +20925,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>65</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="5" t="s">
         <v>78</v>
@@ -20737,7 +20940,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>66</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="5" t="s">
         <v>22</v>
@@ -20749,7 +20955,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>67</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="5" t="s">
         <v>22</v>
@@ -20761,7 +20970,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>68</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="5" t="s">
         <v>22</v>
@@ -20773,7 +20985,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>69</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="5" t="s">
         <v>22</v>
@@ -20785,7 +21000,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>70</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="5" t="s">
         <v>22</v>
@@ -20797,7 +21015,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>71</v>
+      </c>
       <c r="E72" s="4"/>
       <c r="F72" s="5" t="s">
         <v>22</v>
@@ -20809,7 +21030,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>72</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="5" t="s">
         <v>22</v>
@@ -20821,7 +21045,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>73</v>
+      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="5" t="s">
         <v>22</v>
@@ -20833,7 +21060,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>74</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="5" t="s">
         <v>22</v>
@@ -20845,7 +21075,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>75</v>
+      </c>
       <c r="E76" s="4"/>
       <c r="F76" s="5" t="s">
         <v>22</v>
@@ -20857,7 +21090,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>76</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="5" t="s">
         <v>22</v>
@@ -20869,7 +21105,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>77</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="5" t="s">
         <v>22</v>
@@ -20881,7 +21120,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>78</v>
+      </c>
       <c r="E79" s="4"/>
       <c r="F79" s="5" t="s">
         <v>22</v>
@@ -20893,7 +21135,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>79</v>
+      </c>
       <c r="E80" s="4"/>
       <c r="F80" s="5" t="s">
         <v>22</v>
@@ -20905,7 +21150,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>80</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="5" t="s">
         <v>22</v>
@@ -20917,7 +21165,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>81</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="5" t="s">
         <v>22</v>
@@ -20929,7 +21180,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>82</v>
+      </c>
       <c r="E83" s="4"/>
       <c r="F83" s="5" t="s">
         <v>22</v>
@@ -20941,7 +21195,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>83</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="5" t="s">
         <v>22</v>
@@ -20953,7 +21210,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>84</v>
+      </c>
       <c r="E85" s="4"/>
       <c r="F85" s="5" t="s">
         <v>22</v>
@@ -20965,7 +21225,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>85</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="5" t="s">
         <v>22</v>
@@ -20977,7 +21240,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>86</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="5" t="s">
         <v>22</v>
@@ -20989,7 +21255,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>87</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="5" t="s">
         <v>22</v>
@@ -21001,7 +21270,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>88</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="5" t="s">
         <v>22</v>
@@ -21013,7 +21285,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>89</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="5" t="s">
         <v>22</v>
@@ -21025,7 +21300,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>90</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="F91" s="5" t="s">
         <v>22</v>
@@ -21037,7 +21315,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>91</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="5" t="s">
         <v>96</v>
@@ -21049,7 +21330,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>92</v>
+      </c>
       <c r="E93" s="4"/>
       <c r="F93" s="5" t="s">
         <v>97</v>
@@ -21061,7 +21345,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>93</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="5" t="s">
         <v>98</v>
@@ -21073,7 +21360,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>94</v>
+      </c>
       <c r="E95" s="4"/>
       <c r="F95" s="5" t="s">
         <v>99</v>
@@ -21085,7 +21375,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>95</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="5" t="s">
         <v>100</v>
@@ -21097,7 +21390,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>96</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="5" t="s">
         <v>101</v>
@@ -21109,7 +21405,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>97</v>
+      </c>
       <c r="E98" s="4"/>
       <c r="F98" s="5" t="s">
         <v>102</v>
@@ -21121,7 +21420,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>98</v>
+      </c>
       <c r="E99" s="4"/>
       <c r="F99" s="5" t="s">
         <v>103</v>
@@ -21133,7 +21435,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>99</v>
+      </c>
       <c r="E100" s="4"/>
       <c r="F100" s="5" t="s">
         <v>104</v>
@@ -21145,7 +21450,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>100</v>
+      </c>
       <c r="E101" s="4"/>
       <c r="F101" s="5" t="s">
         <v>105</v>
@@ -21157,7 +21465,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>101</v>
+      </c>
       <c r="E102" s="4"/>
       <c r="F102" s="5" t="s">
         <v>106</v>
@@ -21169,7 +21480,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>102</v>
+      </c>
       <c r="E103" s="4"/>
       <c r="F103" s="5" t="s">
         <v>107</v>
@@ -21181,7 +21495,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>103</v>
+      </c>
       <c r="E104" s="4"/>
       <c r="F104" s="5" t="s">
         <v>108</v>
@@ -21193,7 +21510,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>104</v>
+      </c>
       <c r="E105" s="4"/>
       <c r="F105" s="5" t="s">
         <v>108</v>
@@ -21205,7 +21525,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>105</v>
+      </c>
       <c r="E106" s="4"/>
       <c r="F106" s="5" t="s">
         <v>109</v>
@@ -21217,7 +21540,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>106</v>
+      </c>
       <c r="E107" s="4"/>
       <c r="F107" s="5" t="s">
         <v>110</v>
@@ -21229,7 +21555,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>107</v>
+      </c>
       <c r="E108" s="4"/>
       <c r="F108" s="5" t="s">
         <v>111</v>
@@ -21241,7 +21570,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>108</v>
+      </c>
       <c r="E109" s="4"/>
       <c r="F109" s="5" t="s">
         <v>112</v>
@@ -21253,7 +21585,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>109</v>
+      </c>
       <c r="E110" s="4"/>
       <c r="F110" s="5" t="s">
         <v>114</v>
@@ -21265,7 +21600,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>110</v>
+      </c>
       <c r="E111" s="4"/>
       <c r="F111" s="5" t="s">
         <v>113</v>
@@ -21277,7 +21615,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>111</v>
+      </c>
       <c r="E112" s="4"/>
       <c r="F112" s="5" t="s">
         <v>118</v>
@@ -21289,7 +21630,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>112</v>
+      </c>
       <c r="E113" s="4"/>
       <c r="F113" s="5" t="s">
         <v>120</v>
@@ -21301,7 +21645,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>113</v>
+      </c>
       <c r="E114" s="4"/>
       <c r="F114" s="5" t="s">
         <v>121</v>
@@ -21313,7 +21660,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>114</v>
+      </c>
       <c r="E115" s="4"/>
       <c r="F115" s="5" t="s">
         <v>122</v>
@@ -21325,7 +21675,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>115</v>
+      </c>
       <c r="E116" s="4"/>
       <c r="F116" s="5" t="s">
         <v>123</v>
@@ -21337,7 +21690,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>116</v>
+      </c>
       <c r="E117" s="4"/>
       <c r="F117" s="5" t="s">
         <v>124</v>
@@ -21349,7 +21705,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>117</v>
+      </c>
       <c r="E118" s="4"/>
       <c r="F118" s="5" t="s">
         <v>125</v>
@@ -21361,7 +21720,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>118</v>
+      </c>
       <c r="E119" s="4"/>
       <c r="F119" s="5" t="s">
         <v>126</v>
@@ -21373,7 +21735,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>119</v>
+      </c>
       <c r="E120" s="4"/>
       <c r="F120" s="5" t="s">
         <v>127</v>
@@ -21385,7 +21750,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>120</v>
+      </c>
       <c r="E121" s="4"/>
       <c r="F121" s="5" t="s">
         <v>128</v>
@@ -21397,7 +21765,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>121</v>
+      </c>
       <c r="E122" s="4"/>
       <c r="F122" s="5" t="s">
         <v>129</v>
@@ -21409,7 +21780,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>122</v>
+      </c>
       <c r="E123" s="4"/>
       <c r="F123" s="5" t="s">
         <v>130</v>
@@ -21421,7 +21795,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>123</v>
+      </c>
       <c r="E124" s="4"/>
       <c r="F124" s="5" t="s">
         <v>131</v>
@@ -21433,7 +21810,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>124</v>
+      </c>
       <c r="E125" s="4"/>
       <c r="F125" s="5" t="s">
         <v>132</v>
@@ -21445,7 +21825,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>125</v>
+      </c>
       <c r="E126" s="4"/>
       <c r="F126" s="5" t="s">
         <v>134</v>
@@ -21457,7 +21840,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>126</v>
+      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="5" t="s">
         <v>117</v>
@@ -21469,7 +21855,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>127</v>
+      </c>
       <c r="E128" s="4"/>
       <c r="F128" s="5" t="s">
         <v>136</v>
@@ -21481,7 +21870,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>128</v>
+      </c>
       <c r="E129" s="4"/>
       <c r="F129" s="5" t="s">
         <v>137</v>
@@ -21493,7 +21885,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>129</v>
+      </c>
       <c r="E130" s="4"/>
       <c r="F130" s="5" t="s">
         <v>138</v>
@@ -21505,7 +21900,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>130</v>
+      </c>
       <c r="E131" s="4"/>
       <c r="F131" s="5" t="s">
         <v>139</v>
@@ -21517,7 +21915,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>131</v>
+      </c>
       <c r="E132" s="4"/>
       <c r="F132" s="5" t="s">
         <v>139</v>
@@ -21529,7 +21930,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>132</v>
+      </c>
       <c r="E133" s="4"/>
       <c r="F133" s="5" t="s">
         <v>141</v>
@@ -21541,7 +21945,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="134" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>133</v>
+      </c>
       <c r="E134" s="4"/>
       <c r="F134" s="5" t="s">
         <v>142</v>
@@ -21553,7 +21960,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>134</v>
+      </c>
       <c r="E135" s="4"/>
       <c r="F135" s="5" t="s">
         <v>143</v>
@@ -21565,7 +21975,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>135</v>
+      </c>
       <c r="E136" s="4"/>
       <c r="F136" s="5" t="s">
         <v>144</v>
@@ -21577,7 +21990,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="137" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>136</v>
+      </c>
       <c r="E137" s="4"/>
       <c r="F137" s="5" t="s">
         <v>145</v>
@@ -21589,7 +22005,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>137</v>
+      </c>
       <c r="E138" s="4"/>
       <c r="F138" s="5" t="s">
         <v>146</v>
@@ -21601,7 +22020,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="139" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>138</v>
+      </c>
       <c r="E139" s="4"/>
       <c r="F139" s="5" t="s">
         <v>147</v>
@@ -21613,7 +22035,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>139</v>
+      </c>
       <c r="E140" s="4"/>
       <c r="F140" s="5" t="s">
         <v>148</v>
@@ -21625,7 +22050,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="141" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>140</v>
+      </c>
       <c r="E141" s="4"/>
       <c r="F141" s="5" t="s">
         <v>149</v>
@@ -21637,7 +22065,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="142" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>141</v>
+      </c>
       <c r="E142" s="4"/>
       <c r="F142" s="5" t="s">
         <v>150</v>
@@ -21649,7 +22080,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>142</v>
+      </c>
       <c r="E143" s="4"/>
       <c r="F143" s="5" t="s">
         <v>140</v>
@@ -21661,7 +22095,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>143</v>
+      </c>
       <c r="E144" s="4"/>
       <c r="F144" s="5" t="s">
         <v>152</v>
@@ -21673,7 +22110,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>144</v>
+      </c>
       <c r="E145" s="4"/>
       <c r="F145" s="5" t="s">
         <v>152</v>
@@ -21685,7 +22125,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>145</v>
+      </c>
       <c r="E146" s="4"/>
       <c r="F146" s="5" t="s">
         <v>152</v>
@@ -21697,7 +22140,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>146</v>
+      </c>
       <c r="E147" s="4"/>
       <c r="F147" s="5" t="s">
         <v>151</v>
@@ -21709,7 +22155,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>147</v>
+      </c>
       <c r="E148" s="4"/>
       <c r="F148" s="5" t="s">
         <v>151</v>
@@ -21721,7 +22170,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>148</v>
+      </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5" t="s">
         <v>154</v>
@@ -21733,7 +22185,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>149</v>
+      </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5" t="s">
         <v>157</v>
@@ -21745,7 +22200,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>150</v>
+      </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5" t="s">
         <v>158</v>
@@ -21757,7 +22215,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>151</v>
+      </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5" t="s">
         <v>156</v>
@@ -21769,7 +22230,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>152</v>
+      </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5" t="s">
         <v>160</v>
@@ -21781,7 +22245,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>153</v>
+      </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5" t="s">
         <v>162</v>
@@ -21793,7 +22260,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>154</v>
+      </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5" t="s">
         <v>163</v>
@@ -21805,7 +22275,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>155</v>
+      </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5" t="s">
         <v>164</v>
@@ -21817,7 +22290,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>156</v>
+      </c>
       <c r="E157" s="4"/>
       <c r="F157" s="5" t="s">
         <v>165</v>
@@ -21829,7 +22305,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>157</v>
+      </c>
       <c r="E158" s="4"/>
       <c r="F158" s="5" t="s">
         <v>166</v>
@@ -21841,7 +22320,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>158</v>
+      </c>
       <c r="E159" s="4"/>
       <c r="F159" s="5" t="s">
         <v>167</v>
@@ -21853,7 +22335,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>159</v>
+      </c>
       <c r="E160" s="4"/>
       <c r="F160" s="5" t="s">
         <v>168</v>
@@ -21865,7 +22350,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>160</v>
+      </c>
       <c r="E161" s="4"/>
       <c r="F161" s="5" t="s">
         <v>169</v>
@@ -21877,7 +22365,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>161</v>
+      </c>
       <c r="E162" s="4"/>
       <c r="F162" s="5" t="s">
         <v>170</v>
@@ -21889,7 +22380,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>162</v>
+      </c>
       <c r="E163" s="4"/>
       <c r="F163" s="5" t="s">
         <v>171</v>
@@ -21901,7 +22395,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>163</v>
+      </c>
       <c r="E164" s="4"/>
       <c r="F164" s="5" t="s">
         <v>172</v>
@@ -21913,7 +22410,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>164</v>
+      </c>
       <c r="E165" s="4"/>
       <c r="F165" s="5" t="s">
         <v>173</v>
@@ -21925,7 +22425,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="166" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>165</v>
+      </c>
       <c r="E166" s="4"/>
       <c r="F166" s="5" t="s">
         <v>174</v>
@@ -21937,7 +22440,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="167" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>166</v>
+      </c>
       <c r="E167" s="4"/>
       <c r="F167" s="5" t="s">
         <v>176</v>
@@ -21949,7 +22455,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="168" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>167</v>
+      </c>
       <c r="E168" s="4"/>
       <c r="F168" s="5" t="s">
         <v>179</v>
@@ -21961,7 +22470,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="169" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>168</v>
+      </c>
       <c r="E169" s="4"/>
       <c r="F169" s="5" t="s">
         <v>180</v>
@@ -21973,7 +22485,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>169</v>
+      </c>
       <c r="E170" s="4"/>
       <c r="F170" s="5" t="s">
         <v>181</v>
@@ -21985,7 +22500,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="171" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>170</v>
+      </c>
       <c r="E171" s="4"/>
       <c r="F171" s="5" t="s">
         <v>183</v>
@@ -21997,7 +22515,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>171</v>
+      </c>
       <c r="E172" s="4"/>
       <c r="F172" s="5" t="s">
         <v>183</v>
@@ -22009,7 +22530,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="173" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>172</v>
+      </c>
       <c r="E173" s="4"/>
       <c r="F173" s="5" t="s">
         <v>183</v>
@@ -22021,7 +22545,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="174" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>173</v>
+      </c>
       <c r="E174" s="4"/>
       <c r="F174" s="5" t="s">
         <v>187</v>
@@ -22033,7 +22560,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="175" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>174</v>
+      </c>
       <c r="E175" s="4"/>
       <c r="F175" s="5" t="s">
         <v>189</v>
@@ -22045,7 +22575,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="176" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>175</v>
+      </c>
       <c r="E176" s="4"/>
       <c r="F176" s="5" t="s">
         <v>191</v>
@@ -22057,7 +22590,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="177" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>176</v>
+      </c>
       <c r="E177" s="4"/>
       <c r="F177" s="5" t="s">
         <v>193</v>
@@ -22069,7 +22605,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="178" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>177</v>
+      </c>
       <c r="E178" s="4"/>
       <c r="F178" s="5" t="s">
         <v>195</v>
@@ -22081,7 +22620,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="179" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>178</v>
+      </c>
       <c r="E179" s="4"/>
       <c r="F179" s="5" t="s">
         <v>196</v>
@@ -22093,7 +22635,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>179</v>
+      </c>
       <c r="E180" s="4"/>
       <c r="F180" s="5" t="s">
         <v>197</v>
@@ -22105,7 +22650,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="181" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>180</v>
+      </c>
       <c r="E181" s="4"/>
       <c r="F181" s="5" t="s">
         <v>198</v>
@@ -22117,7 +22665,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>181</v>
+      </c>
       <c r="E182" s="4"/>
       <c r="F182" s="5" t="s">
         <v>198</v>
@@ -22129,7 +22680,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="183" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>182</v>
+      </c>
       <c r="E183" s="4"/>
       <c r="F183" s="5" t="s">
         <v>198</v>
@@ -22141,7 +22695,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="184" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>183</v>
+      </c>
       <c r="E184" s="4"/>
       <c r="F184" s="5" t="s">
         <v>199</v>
@@ -22153,7 +22710,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>184</v>
+      </c>
       <c r="E185" s="4"/>
       <c r="F185" s="5" t="s">
         <v>200</v>
@@ -22165,7 +22725,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="186" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>185</v>
+      </c>
       <c r="E186" s="4"/>
       <c r="F186" s="5" t="s">
         <v>201</v>
@@ -22177,7 +22740,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>186</v>
+      </c>
       <c r="E187" s="4"/>
       <c r="F187" s="5" t="s">
         <v>202</v>
@@ -22189,7 +22755,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>187</v>
+      </c>
       <c r="E188" s="4"/>
       <c r="F188" s="5" t="s">
         <v>203</v>
@@ -22201,7 +22770,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>188</v>
+      </c>
       <c r="E189" s="4"/>
       <c r="F189" s="5" t="s">
         <v>204</v>
@@ -22213,7 +22785,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>189</v>
+      </c>
       <c r="E190" s="4"/>
       <c r="F190" s="5" t="s">
         <v>206</v>
@@ -22225,7 +22800,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="191" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>190</v>
+      </c>
       <c r="E191" s="4"/>
       <c r="F191" s="5" t="s">
         <v>206</v>
@@ -22237,7 +22815,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="192" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>191</v>
+      </c>
       <c r="E192" s="4"/>
       <c r="F192" s="5" t="s">
         <v>209</v>
@@ -22249,7 +22830,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>192</v>
+      </c>
       <c r="E193" s="4"/>
       <c r="F193" s="5" t="s">
         <v>209</v>
@@ -22261,7 +22845,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>193</v>
+      </c>
       <c r="E194" s="4"/>
       <c r="F194" s="5" t="s">
         <v>210</v>
@@ -22273,7 +22860,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>194</v>
+      </c>
       <c r="E195" s="4"/>
       <c r="F195" s="5" t="s">
         <v>210</v>
@@ -22285,7 +22875,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>195</v>
+      </c>
       <c r="E196" s="4"/>
       <c r="F196" s="5" t="s">
         <v>211</v>
@@ -22297,7 +22890,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>196</v>
+      </c>
       <c r="E197" s="4"/>
       <c r="F197" s="5" t="s">
         <v>211</v>
@@ -22309,7 +22905,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>197</v>
+      </c>
       <c r="E198" s="4"/>
       <c r="F198" s="5" t="s">
         <v>213</v>
@@ -22321,7 +22920,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>198</v>
+      </c>
       <c r="E199" s="4"/>
       <c r="F199" s="5" t="s">
         <v>215</v>
@@ -22333,7 +22935,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>199</v>
+      </c>
       <c r="E200" s="4"/>
       <c r="F200" s="5" t="s">
         <v>215</v>
@@ -22345,7 +22950,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>200</v>
+      </c>
       <c r="E201" s="4"/>
       <c r="F201" s="5" t="s">
         <v>215</v>
@@ -22357,7 +22965,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>201</v>
+      </c>
       <c r="E202" s="4"/>
       <c r="F202" s="5" t="s">
         <v>215</v>
@@ -22369,7 +22980,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>202</v>
+      </c>
       <c r="E203" s="4"/>
       <c r="F203" s="5" t="s">
         <v>220</v>
@@ -22381,7 +22995,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>203</v>
+      </c>
       <c r="E204" s="4"/>
       <c r="F204" s="5" t="s">
         <v>220</v>
@@ -22393,7 +23010,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>204</v>
+      </c>
       <c r="E205" s="4"/>
       <c r="F205" s="5" t="s">
         <v>220</v>
@@ -22405,7 +23025,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <v>205</v>
+      </c>
       <c r="E206" s="4"/>
       <c r="F206" s="5" t="s">
         <v>220</v>
@@ -22417,7 +23040,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <v>206</v>
+      </c>
       <c r="E207" s="4"/>
       <c r="F207" s="5" t="s">
         <v>220</v>
@@ -22429,7 +23055,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <v>207</v>
+      </c>
       <c r="E208" s="4"/>
       <c r="F208" s="5" t="s">
         <v>220</v>
@@ -22441,7 +23070,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="209" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <v>208</v>
+      </c>
       <c r="E209" s="4"/>
       <c r="F209" s="5" t="s">
         <v>220</v>
@@ -22453,7 +23085,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <v>209</v>
+      </c>
       <c r="E210" s="4"/>
       <c r="F210" s="5" t="s">
         <v>220</v>
@@ -22465,7 +23100,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="211" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <v>210</v>
+      </c>
       <c r="E211" s="4"/>
       <c r="F211" s="5" t="s">
         <v>224</v>
@@ -22477,7 +23115,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="212" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <v>211</v>
+      </c>
       <c r="E212" s="4"/>
       <c r="F212" s="5" t="s">
         <v>225</v>
@@ -22489,7 +23130,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <v>212</v>
+      </c>
       <c r="E213" s="4"/>
       <c r="F213" s="5" t="s">
         <v>225</v>
@@ -22501,7 +23145,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <v>213</v>
+      </c>
       <c r="E214" s="4"/>
       <c r="F214" s="5" t="s">
         <v>225</v>
@@ -22513,7 +23160,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="215" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <v>214</v>
+      </c>
       <c r="E215" s="4"/>
       <c r="F215" s="5" t="s">
         <v>225</v>
@@ -22525,7 +23175,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>215</v>
+      </c>
       <c r="E216" s="4"/>
       <c r="F216" s="5" t="s">
         <v>226</v>
@@ -22537,7 +23190,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <v>216</v>
+      </c>
       <c r="E217" s="4"/>
       <c r="F217" s="5" t="s">
         <v>227</v>
@@ -22549,7 +23205,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="218" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <v>217</v>
+      </c>
       <c r="E218" s="4"/>
       <c r="F218" s="5" t="s">
         <v>229</v>
@@ -22561,7 +23220,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="219" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <v>218</v>
+      </c>
       <c r="E219" s="4"/>
       <c r="F219" s="5" t="s">
         <v>229</v>
@@ -22573,7 +23235,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="220" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>219</v>
+      </c>
       <c r="E220" s="4"/>
       <c r="F220" s="5" t="s">
         <v>229</v>
@@ -22585,7 +23250,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="221" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>220</v>
+      </c>
       <c r="E221" s="4"/>
       <c r="F221" s="5" t="s">
         <v>229</v>
@@ -22597,7 +23265,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="222" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>221</v>
+      </c>
       <c r="E222" s="4"/>
       <c r="F222" s="5" t="s">
         <v>229</v>
@@ -22609,7 +23280,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>222</v>
+      </c>
       <c r="E223" s="4"/>
       <c r="F223" s="5" t="s">
         <v>229</v>
@@ -22621,7 +23295,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="224" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <v>223</v>
+      </c>
       <c r="E224" s="4"/>
       <c r="F224" s="5" t="s">
         <v>229</v>
@@ -22633,7 +23310,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="225" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <v>224</v>
+      </c>
       <c r="E225" s="4"/>
       <c r="F225" s="5" t="s">
         <v>229</v>
@@ -22645,7 +23325,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <v>225</v>
+      </c>
       <c r="E226" s="4"/>
       <c r="F226" s="5" t="s">
         <v>229</v>
@@ -22657,7 +23340,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="227" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <v>226</v>
+      </c>
       <c r="E227" s="4"/>
       <c r="F227" s="5" t="s">
         <v>229</v>
@@ -22669,7 +23355,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <v>227</v>
+      </c>
       <c r="E228" s="4"/>
       <c r="F228" s="5" t="s">
         <v>229</v>
@@ -22681,7 +23370,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="229" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <v>228</v>
+      </c>
       <c r="E229" s="4"/>
       <c r="F229" s="5" t="s">
         <v>229</v>
@@ -22693,7 +23385,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="230" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>229</v>
+      </c>
       <c r="E230" s="4"/>
       <c r="F230" s="5" t="s">
         <v>236</v>
@@ -22705,7 +23400,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="231" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <v>230</v>
+      </c>
       <c r="E231" s="4"/>
       <c r="F231" s="5" t="s">
         <v>237</v>
@@ -22717,7 +23415,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="232" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <v>231</v>
+      </c>
       <c r="E232" s="4"/>
       <c r="F232" s="5" t="s">
         <v>237</v>
@@ -22729,7 +23430,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="233" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <v>232</v>
+      </c>
       <c r="E233" s="4"/>
       <c r="F233" s="5" t="s">
         <v>237</v>
@@ -22741,7 +23445,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="234" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>233</v>
+      </c>
       <c r="E234" s="4"/>
       <c r="F234" s="5" t="s">
         <v>237</v>
@@ -22753,7 +23460,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="235" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>234</v>
+      </c>
       <c r="E235" s="4"/>
       <c r="F235" s="5" t="s">
         <v>238</v>
@@ -22765,7 +23475,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="236" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <v>235</v>
+      </c>
       <c r="E236" s="4"/>
       <c r="F236" s="5" t="s">
         <v>239</v>
@@ -22777,7 +23490,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="237" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>236</v>
+      </c>
       <c r="E237" s="4"/>
       <c r="F237" s="5" t="s">
         <v>239</v>
@@ -22789,7 +23505,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="238" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>237</v>
+      </c>
       <c r="E238" s="4"/>
       <c r="F238" s="5" t="s">
         <v>239</v>
@@ -22801,7 +23520,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="239" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <v>238</v>
+      </c>
       <c r="E239" s="4"/>
       <c r="F239" s="5" t="s">
         <v>239</v>
@@ -22813,7 +23535,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <v>239</v>
+      </c>
       <c r="E240" s="4"/>
       <c r="F240" s="5" t="s">
         <v>240</v>
@@ -22825,7 +23550,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <v>240</v>
+      </c>
       <c r="E241" s="4"/>
       <c r="F241" s="5" t="s">
         <v>212</v>
@@ -22837,7 +23565,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <v>241</v>
+      </c>
       <c r="E242" s="4"/>
       <c r="F242" s="5" t="s">
         <v>212</v>
@@ -22849,7 +23580,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <v>242</v>
+      </c>
       <c r="E243" s="4"/>
       <c r="F243" s="5" t="s">
         <v>212</v>
@@ -22861,7 +23595,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <v>243</v>
+      </c>
       <c r="E244" s="4"/>
       <c r="F244" s="5" t="s">
         <v>212</v>
@@ -22873,7 +23610,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <v>244</v>
+      </c>
       <c r="E245" s="4"/>
       <c r="F245" s="5" t="s">
         <v>212</v>
@@ -22885,7 +23625,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="246" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <v>245</v>
+      </c>
       <c r="E246" s="4"/>
       <c r="F246" s="5" t="s">
         <v>212</v>
@@ -22897,7 +23640,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="247" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>246</v>
+      </c>
       <c r="E247" s="4"/>
       <c r="F247" s="5" t="s">
         <v>212</v>
@@ -22909,7 +23655,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="248" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <v>247</v>
+      </c>
       <c r="E248" s="4"/>
       <c r="F248" s="5" t="s">
         <v>212</v>
@@ -22921,7 +23670,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="249" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <v>248</v>
+      </c>
       <c r="E249" s="4"/>
       <c r="F249" s="5" t="s">
         <v>212</v>
@@ -22933,7 +23685,10 @@
         <v>194</v>
       </c>
     </row>
-    <row r="250" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>249</v>
+      </c>
       <c r="E250" s="4"/>
       <c r="F250" s="5" t="s">
         <v>212</v>
@@ -22945,7 +23700,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="251" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>250</v>
+      </c>
       <c r="E251" s="4"/>
       <c r="F251" s="5" t="s">
         <v>212</v>
@@ -22957,7 +23715,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="252" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>251</v>
+      </c>
       <c r="E252" s="4"/>
       <c r="F252" s="5" t="s">
         <v>212</v>
@@ -22969,7 +23730,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="253" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>252</v>
+      </c>
       <c r="E253" s="4"/>
       <c r="F253" s="5" t="s">
         <v>212</v>
@@ -22981,7 +23745,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="254" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <v>253</v>
+      </c>
       <c r="E254" s="4"/>
       <c r="F254" s="5" t="s">
         <v>212</v>
@@ -22993,7 +23760,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="255" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <v>254</v>
+      </c>
       <c r="E255" s="4"/>
       <c r="F255" s="5" t="s">
         <v>212</v>
@@ -23005,7 +23775,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="256" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <v>255</v>
+      </c>
       <c r="E256" s="4"/>
       <c r="F256" s="5" t="s">
         <v>212</v>
@@ -23017,7 +23790,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="257" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <v>256</v>
+      </c>
       <c r="E257" s="4"/>
       <c r="F257" s="5" t="s">
         <v>212</v>
@@ -23029,7 +23805,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="258" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <v>257</v>
+      </c>
       <c r="E258" s="4"/>
       <c r="F258" s="5" t="s">
         <v>212</v>
@@ -23041,7 +23820,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="259" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <v>258</v>
+      </c>
       <c r="E259" s="4"/>
       <c r="F259" s="5" t="s">
         <v>250</v>
@@ -23053,7 +23835,10 @@
         <v>251</v>
       </c>
     </row>
-    <row r="260" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <v>259</v>
+      </c>
       <c r="E260" s="4"/>
       <c r="F260" s="5" t="s">
         <v>252</v>
@@ -23065,7 +23850,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="261" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <v>260</v>
+      </c>
       <c r="E261" s="4"/>
       <c r="F261" s="5" t="s">
         <v>253</v>
@@ -23077,7 +23865,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="262" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <v>261</v>
+      </c>
       <c r="E262" s="4"/>
       <c r="F262" s="5" t="s">
         <v>254</v>
@@ -23089,7 +23880,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="263" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>262</v>
+      </c>
       <c r="E263" s="4"/>
       <c r="F263" s="5" t="s">
         <v>254</v>
@@ -23101,7 +23895,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="264" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <v>263</v>
+      </c>
       <c r="E264" s="4"/>
       <c r="F264" s="5" t="s">
         <v>254</v>
@@ -23113,7 +23910,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="265" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <v>264</v>
+      </c>
       <c r="E265" s="4"/>
       <c r="F265" s="5" t="s">
         <v>255</v>
@@ -23125,7 +23925,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="266" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <v>265</v>
+      </c>
       <c r="E266" s="4"/>
       <c r="F266" s="5" t="s">
         <v>255</v>
@@ -23137,7 +23940,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="267" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <v>266</v>
+      </c>
       <c r="E267" s="4"/>
       <c r="F267" s="5" t="s">
         <v>255</v>
@@ -23149,7 +23955,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="268" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <v>267</v>
+      </c>
       <c r="E268" s="4"/>
       <c r="F268" s="5" t="s">
         <v>255</v>
@@ -23161,7 +23970,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="269" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <v>268</v>
+      </c>
       <c r="E269" s="4"/>
       <c r="F269" s="5" t="s">
         <v>255</v>
@@ -23173,7 +23985,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="270" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <v>269</v>
+      </c>
       <c r="E270" s="4"/>
       <c r="F270" s="5" t="s">
         <v>255</v>
@@ -23185,7 +24000,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="271" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <v>270</v>
+      </c>
       <c r="E271" s="4"/>
       <c r="F271" s="5" t="s">
         <v>256</v>
@@ -23197,7 +24015,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="272" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <v>271</v>
+      </c>
       <c r="E272" s="4"/>
       <c r="F272" s="5" t="s">
         <v>257</v>
@@ -23209,7 +24030,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="273" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <v>272</v>
+      </c>
       <c r="E273" s="4"/>
       <c r="F273" s="5" t="s">
         <v>257</v>
@@ -23221,7 +24045,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="274" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <v>273</v>
+      </c>
       <c r="E274" s="4"/>
       <c r="F274" s="5" t="s">
         <v>257</v>
@@ -23233,7 +24060,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="275" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <v>274</v>
+      </c>
       <c r="E275" s="4"/>
       <c r="F275" s="5" t="s">
         <v>257</v>
@@ -23245,7 +24075,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="276" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <v>275</v>
+      </c>
       <c r="E276" s="4"/>
       <c r="F276" s="5" t="s">
         <v>257</v>
@@ -23257,7 +24090,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="277" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <v>276</v>
+      </c>
       <c r="E277" s="4"/>
       <c r="F277" s="5" t="s">
         <v>257</v>
@@ -23269,7 +24105,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="278" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <v>277</v>
+      </c>
       <c r="E278" s="4"/>
       <c r="F278" s="5" t="s">
         <v>257</v>
@@ -23281,7 +24120,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="279" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <v>278</v>
+      </c>
       <c r="E279" s="4"/>
       <c r="F279" s="5" t="s">
         <v>258</v>
@@ -23293,7 +24135,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="280" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <v>279</v>
+      </c>
       <c r="E280" s="4"/>
       <c r="F280" s="5" t="s">
         <v>260</v>
@@ -23305,7 +24150,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="281" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <v>280</v>
+      </c>
       <c r="E281" s="4"/>
       <c r="F281" s="5" t="s">
         <v>260</v>
@@ -23317,7 +24165,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="282" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <v>281</v>
+      </c>
       <c r="E282" s="4"/>
       <c r="F282" s="5" t="s">
         <v>261</v>
@@ -23329,7 +24180,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="283" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>282</v>
+      </c>
       <c r="E283" s="4"/>
       <c r="F283" s="5" t="s">
         <v>261</v>
@@ -23341,7 +24195,10 @@
         <v>245</v>
       </c>
     </row>
-    <row r="284" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>283</v>
+      </c>
       <c r="E284" s="4"/>
       <c r="F284" s="5" t="s">
         <v>263</v>
@@ -23353,7 +24210,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="285" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>284</v>
+      </c>
       <c r="E285" s="4"/>
       <c r="F285" s="5" t="s">
         <v>264</v>
@@ -23365,7 +24225,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="286" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>285</v>
+      </c>
       <c r="E286" s="4"/>
       <c r="F286" s="5" t="s">
         <v>265</v>
@@ -23377,7 +24240,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="287" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <v>286</v>
+      </c>
       <c r="E287" s="4"/>
       <c r="F287" s="5" t="s">
         <v>266</v>
@@ -23389,7 +24255,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="288" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <v>287</v>
+      </c>
       <c r="E288" s="4"/>
       <c r="F288" s="5" t="s">
         <v>262</v>
@@ -23401,7 +24270,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="289" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <v>288</v>
+      </c>
       <c r="E289" s="4"/>
       <c r="F289" s="5" t="s">
         <v>268</v>
@@ -23413,7 +24285,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="290" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <v>289</v>
+      </c>
       <c r="E290" s="4"/>
       <c r="F290" s="5" t="s">
         <v>271</v>
@@ -23425,7 +24300,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="291" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <v>290</v>
+      </c>
       <c r="E291" s="4"/>
       <c r="F291" s="5" t="s">
         <v>272</v>
@@ -23437,7 +24315,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="292" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <v>291</v>
+      </c>
       <c r="E292" s="4"/>
       <c r="F292" s="5" t="s">
         <v>272</v>
@@ -23449,7 +24330,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="293" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <v>292</v>
+      </c>
       <c r="E293" s="4"/>
       <c r="F293" s="5" t="s">
         <v>273</v>
@@ -23461,7 +24345,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="294" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <v>293</v>
+      </c>
       <c r="E294" s="4"/>
       <c r="F294" s="5" t="s">
         <v>273</v>
@@ -23473,7 +24360,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="295" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <v>294</v>
+      </c>
       <c r="E295" s="4"/>
       <c r="F295" s="5" t="s">
         <v>273</v>
@@ -23485,7 +24375,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="296" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <v>295</v>
+      </c>
       <c r="E296" s="4"/>
       <c r="F296" s="5" t="s">
         <v>276</v>
@@ -23497,7 +24390,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="297" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <v>296</v>
+      </c>
       <c r="E297" s="4"/>
       <c r="F297" s="5" t="s">
         <v>278</v>
@@ -23509,7 +24405,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="298" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>297</v>
+      </c>
       <c r="E298" s="4"/>
       <c r="F298" s="5" t="s">
         <v>278</v>
@@ -23521,7 +24420,10 @@
         <v>133</v>
       </c>
     </row>
-    <row r="299" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>298</v>
+      </c>
       <c r="E299" s="4"/>
       <c r="F299" s="5" t="s">
         <v>278</v>
@@ -23533,7 +24435,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="300" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>299</v>
+      </c>
       <c r="E300" s="4"/>
       <c r="F300" s="5" t="s">
         <v>267</v>
@@ -23545,7 +24450,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="301" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <v>300</v>
+      </c>
       <c r="E301" s="4"/>
       <c r="F301" s="5" t="s">
         <v>267</v>
@@ -23557,7 +24465,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="302" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <v>301</v>
+      </c>
       <c r="E302" s="4"/>
       <c r="F302" s="5" t="s">
         <v>267</v>
@@ -23569,7 +24480,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="303" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <v>302</v>
+      </c>
       <c r="E303" s="4"/>
       <c r="F303" s="5" t="s">
         <v>267</v>
@@ -23581,7 +24495,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="304" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <v>303</v>
+      </c>
       <c r="E304" s="4"/>
       <c r="F304" s="5" t="s">
         <v>280</v>
@@ -23593,7 +24510,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="305" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <v>304</v>
+      </c>
       <c r="E305" s="4"/>
       <c r="F305" s="5" t="s">
         <v>281</v>
@@ -23605,7 +24525,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="306" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <v>305</v>
+      </c>
       <c r="E306" s="4"/>
       <c r="F306" s="5" t="s">
         <v>282</v>
@@ -23617,7 +24540,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="307" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <v>306</v>
+      </c>
       <c r="E307" s="4"/>
       <c r="F307" s="5" t="s">
         <v>283</v>
@@ -23629,7 +24555,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="308" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <v>307</v>
+      </c>
       <c r="E308" s="4"/>
       <c r="F308" s="5" t="s">
         <v>284</v>
@@ -23641,7 +24570,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="309" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <v>308</v>
+      </c>
       <c r="E309" s="4"/>
       <c r="F309" s="5" t="s">
         <v>284</v>
@@ -23653,7 +24585,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="310" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <v>309</v>
+      </c>
       <c r="E310" s="4"/>
       <c r="F310" s="5" t="s">
         <v>284</v>
@@ -23665,7 +24600,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="311" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <v>310</v>
+      </c>
       <c r="E311" s="4"/>
       <c r="F311" s="5" t="s">
         <v>285</v>
@@ -23677,7 +24615,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="312" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <v>311</v>
+      </c>
       <c r="E312" s="4"/>
       <c r="F312" s="5" t="s">
         <v>285</v>
@@ -23689,7 +24630,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="313" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <v>312</v>
+      </c>
       <c r="E313" s="4"/>
       <c r="F313" s="5" t="s">
         <v>285</v>
@@ -23701,7 +24645,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="314" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <v>313</v>
+      </c>
       <c r="E314" s="4"/>
       <c r="F314" s="5" t="s">
         <v>287</v>
@@ -23713,7 +24660,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="315" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <v>314</v>
+      </c>
       <c r="E315" s="4"/>
       <c r="F315" s="5" t="s">
         <v>288</v>
@@ -23725,7 +24675,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="316" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <v>315</v>
+      </c>
       <c r="E316" s="4"/>
       <c r="F316" s="5" t="s">
         <v>289</v>
@@ -23737,7 +24690,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="317" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <v>316</v>
+      </c>
       <c r="E317" s="4"/>
       <c r="F317" s="5" t="s">
         <v>291</v>
@@ -23749,7 +24705,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="318" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <v>317</v>
+      </c>
       <c r="E318" s="4"/>
       <c r="F318" s="5" t="s">
         <v>293</v>
@@ -23761,7 +24720,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="319" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <v>318</v>
+      </c>
       <c r="E319" s="4"/>
       <c r="F319" s="5" t="s">
         <v>294</v>
@@ -23773,7 +24735,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="320" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <v>319</v>
+      </c>
       <c r="E320" s="4"/>
       <c r="F320" s="5" t="s">
         <v>290</v>
@@ -23785,7 +24750,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="321" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <v>320</v>
+      </c>
       <c r="E321" s="4"/>
       <c r="F321" s="5" t="s">
         <v>290</v>
@@ -23797,7 +24765,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="322" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <v>321</v>
+      </c>
       <c r="E322" s="4"/>
       <c r="F322" s="5" t="s">
         <v>295</v>
@@ -23809,7 +24780,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="323" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <v>322</v>
+      </c>
       <c r="E323" s="4"/>
       <c r="F323" s="5" t="s">
         <v>296</v>
@@ -23821,7 +24795,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="324" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <v>323</v>
+      </c>
       <c r="E324" s="4"/>
       <c r="F324" s="5" t="s">
         <v>297</v>
@@ -23833,7 +24810,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="325" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <v>324</v>
+      </c>
       <c r="E325" s="4"/>
       <c r="F325" s="5" t="s">
         <v>298</v>
@@ -23845,7 +24825,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="326" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <v>325</v>
+      </c>
       <c r="E326" s="4"/>
       <c r="F326" s="5" t="s">
         <v>299</v>
@@ -23857,7 +24840,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="327" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <v>326</v>
+      </c>
       <c r="E327" s="4"/>
       <c r="F327" s="5" t="s">
         <v>299</v>
@@ -23869,7 +24855,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="328" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <v>327</v>
+      </c>
       <c r="E328" s="4"/>
       <c r="F328" s="5" t="s">
         <v>301</v>
@@ -23881,7 +24870,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="329" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <v>328</v>
+      </c>
       <c r="E329" s="4"/>
       <c r="F329" s="5" t="s">
         <v>302</v>
@@ -23893,7 +24885,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="330" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <v>329</v>
+      </c>
       <c r="E330" s="4"/>
       <c r="F330" s="5" t="s">
         <v>303</v>
@@ -23905,7 +24900,10 @@
         <v>305</v>
       </c>
     </row>
-    <row r="331" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>330</v>
+      </c>
       <c r="E331" s="4"/>
       <c r="F331" s="5" t="s">
         <v>307</v>
@@ -23917,7 +24915,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="332" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <v>331</v>
+      </c>
       <c r="E332" s="4"/>
       <c r="F332" s="5" t="s">
         <v>309</v>
@@ -23929,7 +24930,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="333" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>332</v>
+      </c>
       <c r="E333" s="4"/>
       <c r="F333" s="5" t="s">
         <v>311</v>
@@ -23941,7 +24945,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="334" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>333</v>
+      </c>
       <c r="E334" s="4"/>
       <c r="F334" s="5" t="s">
         <v>312</v>
@@ -23953,7 +24960,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="335" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>334</v>
+      </c>
       <c r="E335" s="4"/>
       <c r="F335" s="5" t="s">
         <v>308</v>
@@ -23965,7 +24975,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="336" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <v>335</v>
+      </c>
       <c r="E336" s="4"/>
       <c r="F336" s="5" t="s">
         <v>314</v>
@@ -23977,7 +24990,10 @@
         <v>316</v>
       </c>
     </row>
-    <row r="337" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <v>336</v>
+      </c>
       <c r="E337" s="4"/>
       <c r="F337" s="5" t="s">
         <v>313</v>
@@ -23989,7 +25005,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="338" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <v>337</v>
+      </c>
       <c r="E338" s="4"/>
       <c r="F338" s="5" t="s">
         <v>318</v>
@@ -24001,7 +25020,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="339" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <v>338</v>
+      </c>
       <c r="E339" s="4"/>
       <c r="F339" s="5" t="s">
         <v>319</v>
@@ -24013,7 +25035,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <v>339</v>
+      </c>
       <c r="E340" s="4"/>
       <c r="F340" s="5" t="s">
         <v>320</v>
@@ -24025,7 +25050,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="341" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <v>340</v>
+      </c>
       <c r="E341" s="4"/>
       <c r="F341" s="5" t="s">
         <v>321</v>
@@ -24037,7 +25065,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="342" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <v>341</v>
+      </c>
       <c r="E342" s="4"/>
       <c r="F342" s="5" t="s">
         <v>322</v>
@@ -24049,7 +25080,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="343" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <v>342</v>
+      </c>
       <c r="E343" s="4"/>
       <c r="F343" s="5" t="s">
         <v>323</v>
@@ -24061,7 +25095,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <v>343</v>
+      </c>
       <c r="E344" s="4"/>
       <c r="F344" s="5" t="s">
         <v>317</v>
@@ -24073,7 +25110,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <v>344</v>
+      </c>
       <c r="E345" s="4"/>
       <c r="F345" s="5" t="s">
         <v>325</v>
@@ -24085,7 +25125,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="346" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <v>345</v>
+      </c>
       <c r="E346" s="4"/>
       <c r="F346" s="5" t="s">
         <v>327</v>
@@ -24097,7 +25140,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="347" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <v>346</v>
+      </c>
       <c r="E347" s="4"/>
       <c r="F347" s="5" t="s">
         <v>329</v>
@@ -24109,7 +25155,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="348" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <v>347</v>
+      </c>
       <c r="E348" s="4"/>
       <c r="F348" s="5" t="s">
         <v>330</v>
@@ -24121,7 +25170,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="349" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <v>348</v>
+      </c>
       <c r="E349" s="4"/>
       <c r="F349" s="5" t="s">
         <v>331</v>
@@ -24133,7 +25185,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="350" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <v>349</v>
+      </c>
       <c r="E350" s="4"/>
       <c r="F350" s="5" t="s">
         <v>332</v>
@@ -24145,7 +25200,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="351" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <v>350</v>
+      </c>
       <c r="E351" s="4"/>
       <c r="F351" s="5" t="s">
         <v>333</v>
@@ -24157,7 +25215,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="352" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <v>351</v>
+      </c>
       <c r="E352" s="4"/>
       <c r="F352" s="5" t="s">
         <v>334</v>
@@ -24169,7 +25230,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="353" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <v>352</v>
+      </c>
       <c r="E353" s="4"/>
       <c r="F353" s="5" t="s">
         <v>335</v>
@@ -24181,7 +25245,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="354" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <v>353</v>
+      </c>
       <c r="E354" s="4"/>
       <c r="F354" s="5" t="s">
         <v>336</v>
@@ -24193,7 +25260,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="355" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <v>354</v>
+      </c>
       <c r="E355" s="4"/>
       <c r="F355" s="5" t="s">
         <v>337</v>
@@ -24205,7 +25275,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="356" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <v>355</v>
+      </c>
       <c r="E356" s="4"/>
       <c r="F356" s="5" t="s">
         <v>338</v>
@@ -24217,7 +25290,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="357" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <v>356</v>
+      </c>
       <c r="E357" s="4"/>
       <c r="F357" s="5" t="s">
         <v>340</v>
@@ -24229,7 +25305,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="358" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <v>357</v>
+      </c>
       <c r="E358" s="4"/>
       <c r="F358" s="5" t="s">
         <v>324</v>
@@ -24241,7 +25320,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="359" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <v>358</v>
+      </c>
       <c r="E359" s="4"/>
       <c r="F359" s="5" t="s">
         <v>341</v>
@@ -24253,7 +25335,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="360" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <v>359</v>
+      </c>
       <c r="E360" s="4"/>
       <c r="F360" s="5" t="s">
         <v>342</v>
@@ -24265,7 +25350,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="361" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <v>360</v>
+      </c>
       <c r="E361" s="4"/>
       <c r="F361" s="5" t="s">
         <v>343</v>
@@ -24277,7 +25365,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="362" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <v>361</v>
+      </c>
       <c r="E362" s="4"/>
       <c r="F362" s="5" t="s">
         <v>345</v>
@@ -24289,7 +25380,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="363" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <v>362</v>
+      </c>
       <c r="E363" s="4"/>
       <c r="F363" s="5" t="s">
         <v>346</v>
@@ -24301,7 +25395,10 @@
         <v>328</v>
       </c>
     </row>
-    <row r="364" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <v>363</v>
+      </c>
       <c r="E364" s="4"/>
       <c r="F364" s="5" t="s">
         <v>347</v>
@@ -24313,7 +25410,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="365" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <v>364</v>
+      </c>
       <c r="E365" s="4"/>
       <c r="F365" s="5" t="s">
         <v>348</v>
@@ -24325,7 +25425,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="366" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <v>365</v>
+      </c>
       <c r="E366" s="4"/>
       <c r="F366" s="5" t="s">
         <v>349</v>
@@ -24337,7 +25440,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="367" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <v>366</v>
+      </c>
       <c r="E367" s="4"/>
       <c r="F367" s="5" t="s">
         <v>350</v>
@@ -24349,7 +25455,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="368" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <v>367</v>
+      </c>
       <c r="E368" s="4"/>
       <c r="F368" s="5" t="s">
         <v>351</v>
@@ -24361,7 +25470,10 @@
         <v>326</v>
       </c>
     </row>
-    <row r="369" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <v>368</v>
+      </c>
       <c r="E369" s="4"/>
       <c r="F369" s="5" t="s">
         <v>353</v>
@@ -24373,7 +25485,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="370" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <v>369</v>
+      </c>
       <c r="E370" s="4"/>
       <c r="F370" s="5" t="s">
         <v>352</v>
@@ -24385,7 +25500,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="371" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <v>370</v>
+      </c>
       <c r="E371" s="4"/>
       <c r="F371" s="5" t="s">
         <v>352</v>
@@ -24397,7 +25515,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="372" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <v>371</v>
+      </c>
       <c r="E372" s="4"/>
       <c r="F372" s="5" t="s">
         <v>352</v>
@@ -24409,7 +25530,10 @@
         <v>355</v>
       </c>
     </row>
-    <row r="373" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <v>372</v>
+      </c>
       <c r="E373" s="4"/>
       <c r="F373" s="5" t="s">
         <v>357</v>
@@ -24421,7 +25545,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="374" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <v>373</v>
+      </c>
       <c r="E374" s="4"/>
       <c r="F374" s="5" t="s">
         <v>358</v>
@@ -24433,7 +25560,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="375" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <v>374</v>
+      </c>
       <c r="E375" s="4"/>
       <c r="F375" s="5" t="s">
         <v>359</v>
@@ -24445,7 +25575,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="376" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <v>375</v>
+      </c>
       <c r="E376" s="4"/>
       <c r="F376" s="5" t="s">
         <v>361</v>
@@ -24457,7 +25590,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="377" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <v>376</v>
+      </c>
       <c r="E377" s="4"/>
       <c r="F377" s="5" t="s">
         <v>361</v>
@@ -24469,7 +25605,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="378" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D378">
+        <v>377</v>
+      </c>
       <c r="E378" s="4"/>
       <c r="F378" s="5" t="s">
         <v>361</v>
@@ -24481,7 +25620,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="379" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D379">
+        <v>378</v>
+      </c>
       <c r="E379" s="4"/>
       <c r="F379" s="5" t="s">
         <v>361</v>
@@ -24493,7 +25635,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="380" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D380">
+        <v>379</v>
+      </c>
       <c r="E380" s="4"/>
       <c r="F380" s="5" t="s">
         <v>361</v>
@@ -24505,7 +25650,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="381" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <v>380</v>
+      </c>
       <c r="E381" s="4"/>
       <c r="F381" s="5" t="s">
         <v>361</v>
@@ -24517,7 +25665,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="382" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D382">
+        <v>381</v>
+      </c>
       <c r="E382" s="4"/>
       <c r="F382" s="5" t="s">
         <v>366</v>
@@ -24529,7 +25680,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="383" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D383">
+        <v>382</v>
+      </c>
       <c r="E383" s="4"/>
       <c r="F383" s="5" t="s">
         <v>366</v>
@@ -24541,7 +25695,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="384" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D384">
+        <v>383</v>
+      </c>
       <c r="E384" s="4"/>
       <c r="F384" s="5" t="s">
         <v>366</v>
@@ -24553,7 +25710,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="385" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D385">
+        <v>384</v>
+      </c>
       <c r="E385" s="4"/>
       <c r="F385" s="5" t="s">
         <v>366</v>
@@ -24565,7 +25725,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="386" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D386">
+        <v>385</v>
+      </c>
       <c r="E386" s="4"/>
       <c r="F386" s="5" t="s">
         <v>366</v>
@@ -24577,7 +25740,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="387" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <v>386</v>
+      </c>
       <c r="E387" s="4"/>
       <c r="F387" s="5" t="s">
         <v>366</v>
@@ -24589,7 +25755,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="388" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D388">
+        <v>387</v>
+      </c>
       <c r="E388" s="4"/>
       <c r="F388" s="5" t="s">
         <v>368</v>
@@ -24601,7 +25770,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="389" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D389">
+        <v>388</v>
+      </c>
       <c r="E389" s="4"/>
       <c r="F389" s="5" t="s">
         <v>368</v>
@@ -24613,7 +25785,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="390" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <v>389</v>
+      </c>
       <c r="E390" s="4"/>
       <c r="F390" s="5" t="s">
         <v>369</v>
@@ -24625,7 +25800,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="391" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D391">
+        <v>390</v>
+      </c>
       <c r="E391" s="4"/>
       <c r="F391" s="5" t="s">
         <v>369</v>
@@ -24637,7 +25815,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="392" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D392">
+        <v>391</v>
+      </c>
       <c r="E392" s="4"/>
       <c r="F392" s="5" t="s">
         <v>371</v>
@@ -24649,7 +25830,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="393" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <v>392</v>
+      </c>
       <c r="E393" s="4"/>
       <c r="F393" s="5" t="s">
         <v>373</v>
@@ -24661,7 +25845,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="394" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D394">
+        <v>393</v>
+      </c>
       <c r="E394" s="4"/>
       <c r="F394" s="5" t="s">
         <v>374</v>
@@ -24673,7 +25860,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="395" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <v>394</v>
+      </c>
       <c r="E395" s="4"/>
       <c r="F395" s="5" t="s">
         <v>370</v>
@@ -24685,7 +25875,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="396" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D396">
+        <v>395</v>
+      </c>
       <c r="E396" s="4"/>
       <c r="F396" s="5" t="s">
         <v>376</v>
@@ -24697,7 +25890,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="397" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D397">
+        <v>396</v>
+      </c>
       <c r="E397" s="4"/>
       <c r="F397" s="5" t="s">
         <v>378</v>
@@ -24709,7 +25905,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="398" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D398">
+        <v>397</v>
+      </c>
       <c r="E398" s="4"/>
       <c r="F398" s="5" t="s">
         <v>379</v>
@@ -24721,7 +25920,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="399" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D399">
+        <v>398</v>
+      </c>
       <c r="E399" s="4"/>
       <c r="F399" s="5" t="s">
         <v>380</v>
@@ -24733,7 +25935,10 @@
         <v>377</v>
       </c>
     </row>
-    <row r="400" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D400">
+        <v>399</v>
+      </c>
       <c r="E400" s="4"/>
       <c r="F400" s="5" t="s">
         <v>375</v>
@@ -24745,7 +25950,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="401" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D401">
+        <v>400</v>
+      </c>
       <c r="E401" s="4"/>
       <c r="F401" s="5" t="s">
         <v>382</v>
@@ -24757,7 +25965,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="402" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D402">
+        <v>401</v>
+      </c>
       <c r="E402" s="4"/>
       <c r="F402" s="5" t="s">
         <v>383</v>
@@ -24769,7 +25980,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="403" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D403">
+        <v>402</v>
+      </c>
       <c r="E403" s="4"/>
       <c r="F403" s="5" t="s">
         <v>386</v>
@@ -24781,7 +25995,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="404" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D404">
+        <v>403</v>
+      </c>
       <c r="E404" s="4"/>
       <c r="F404" s="5" t="s">
         <v>388</v>
@@ -24793,7 +26010,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D405">
+        <v>404</v>
+      </c>
       <c r="E405" s="4"/>
       <c r="F405" s="5" t="s">
         <v>390</v>
@@ -24805,7 +26025,10 @@
         <v>391</v>
       </c>
     </row>
-    <row r="406" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D406">
+        <v>405</v>
+      </c>
       <c r="E406" s="4"/>
       <c r="F406" s="5" t="s">
         <v>390</v>
@@ -24817,7 +26040,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D407">
+        <v>406</v>
+      </c>
       <c r="E407" s="4"/>
       <c r="F407" s="5" t="s">
         <v>390</v>
@@ -24829,7 +26055,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="408" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D408">
+        <v>407</v>
+      </c>
       <c r="E408" s="4"/>
       <c r="F408" s="5" t="s">
         <v>390</v>
@@ -24841,7 +26070,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="409" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D409">
+        <v>408</v>
+      </c>
       <c r="E409" s="4"/>
       <c r="F409" s="5" t="s">
         <v>390</v>
@@ -24853,7 +26085,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="410" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D410">
+        <v>409</v>
+      </c>
       <c r="E410" s="4"/>
       <c r="F410" s="5" t="s">
         <v>390</v>
@@ -24865,7 +26100,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="411" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D411">
+        <v>410</v>
+      </c>
       <c r="E411" s="4"/>
       <c r="F411" s="5" t="s">
         <v>390</v>
@@ -24877,7 +26115,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="412" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D412">
+        <v>411</v>
+      </c>
       <c r="E412" s="4"/>
       <c r="F412" s="5" t="s">
         <v>390</v>
@@ -24889,7 +26130,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="413" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D413">
+        <v>412</v>
+      </c>
       <c r="E413" s="4"/>
       <c r="F413" s="5" t="s">
         <v>389</v>
@@ -24901,7 +26145,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="414" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D414">
+        <v>413</v>
+      </c>
       <c r="E414" s="4"/>
       <c r="F414" s="5" t="s">
         <v>389</v>
@@ -24913,7 +26160,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D415">
+        <v>414</v>
+      </c>
       <c r="E415" s="4"/>
       <c r="F415" s="5" t="s">
         <v>389</v>
@@ -24925,7 +26175,10 @@
         <v>391</v>
       </c>
     </row>
-    <row r="416" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D416">
+        <v>415</v>
+      </c>
       <c r="E416" s="4"/>
       <c r="F416" s="5" t="s">
         <v>389</v>
@@ -24937,7 +26190,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="417" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D417">
+        <v>416</v>
+      </c>
       <c r="E417" s="4"/>
       <c r="F417" s="5" t="s">
         <v>389</v>
@@ -24949,7 +26205,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="418" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D418">
+        <v>417</v>
+      </c>
       <c r="E418" s="4"/>
       <c r="F418" s="5" t="s">
         <v>389</v>
@@ -24961,7 +26220,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="419" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D419">
+        <v>418</v>
+      </c>
       <c r="E419" s="4"/>
       <c r="F419" s="5" t="s">
         <v>389</v>
@@ -24973,7 +26235,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="420" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D420">
+        <v>419</v>
+      </c>
       <c r="E420" s="4"/>
       <c r="F420" s="5" t="s">
         <v>400</v>
@@ -24985,7 +26250,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="421" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D421">
+        <v>420</v>
+      </c>
       <c r="E421" s="4"/>
       <c r="F421" s="5" t="s">
         <v>400</v>
@@ -24997,7 +26265,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="422" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D422">
+        <v>421</v>
+      </c>
       <c r="E422" s="4"/>
       <c r="F422" s="5" t="s">
         <v>401</v>
@@ -25009,7 +26280,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="423" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D423">
+        <v>422</v>
+      </c>
       <c r="E423" s="4"/>
       <c r="F423" s="5" t="s">
         <v>399</v>
@@ -25021,7 +26295,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="424" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D424">
+        <v>423</v>
+      </c>
       <c r="E424" s="4"/>
       <c r="F424" s="5" t="s">
         <v>402</v>
@@ -25033,7 +26310,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="425" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D425">
+        <v>424</v>
+      </c>
       <c r="E425" s="4"/>
       <c r="F425" s="5" t="s">
         <v>403</v>
@@ -25045,7 +26325,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="426" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D426">
+        <v>425</v>
+      </c>
       <c r="E426" s="4"/>
       <c r="F426" s="5" t="s">
         <v>405</v>
@@ -25057,7 +26340,10 @@
         <v>406</v>
       </c>
     </row>
-    <row r="427" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D427">
+        <v>426</v>
+      </c>
       <c r="E427" s="4"/>
       <c r="F427" s="5" t="s">
         <v>405</v>
@@ -25069,7 +26355,10 @@
         <v>406</v>
       </c>
     </row>
-    <row r="428" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D428">
+        <v>427</v>
+      </c>
       <c r="E428" s="4"/>
       <c r="F428" s="5" t="s">
         <v>408</v>
@@ -25081,7 +26370,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="429" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D429">
+        <v>428</v>
+      </c>
       <c r="E429" s="4"/>
       <c r="F429" s="5" t="s">
         <v>410</v>
@@ -25093,7 +26385,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="430" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D430">
+        <v>429</v>
+      </c>
       <c r="E430" s="4"/>
       <c r="F430" s="5" t="s">
         <v>411</v>
@@ -25105,7 +26400,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="431" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D431">
+        <v>430</v>
+      </c>
       <c r="E431" s="4"/>
       <c r="F431" s="5" t="s">
         <v>411</v>
@@ -25117,7 +26415,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="432" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D432">
+        <v>431</v>
+      </c>
       <c r="E432" s="4"/>
       <c r="F432" s="5" t="s">
         <v>411</v>
@@ -25129,7 +26430,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="433" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D433">
+        <v>432</v>
+      </c>
       <c r="E433" s="4"/>
       <c r="F433" s="5" t="s">
         <v>414</v>
@@ -25141,7 +26445,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="434" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D434">
+        <v>433</v>
+      </c>
       <c r="E434" s="4"/>
       <c r="F434" s="5" t="s">
         <v>415</v>
@@ -25153,7 +26460,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="435" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D435">
+        <v>434</v>
+      </c>
       <c r="E435" s="4"/>
       <c r="F435" s="5" t="s">
         <v>409</v>
@@ -25165,7 +26475,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="436" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D436">
+        <v>435</v>
+      </c>
       <c r="E436" s="4"/>
       <c r="F436" s="5" t="s">
         <v>409</v>
@@ -25177,7 +26490,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="437" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D437">
+        <v>436</v>
+      </c>
       <c r="E437" s="4"/>
       <c r="F437" s="5" t="s">
         <v>409</v>
@@ -25189,7 +26505,10 @@
         <v>161</v>
       </c>
     </row>
-    <row r="438" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D438">
+        <v>437</v>
+      </c>
       <c r="E438" s="4"/>
       <c r="F438" s="5" t="s">
         <v>409</v>
@@ -25201,7 +26520,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="439" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D439">
+        <v>438</v>
+      </c>
       <c r="E439" s="4"/>
       <c r="F439" s="5" t="s">
         <v>409</v>
@@ -25213,7 +26535,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="440" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D440">
+        <v>439</v>
+      </c>
       <c r="E440" s="4"/>
       <c r="F440" s="5" t="s">
         <v>409</v>
@@ -25225,7 +26550,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="441" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D441">
+        <v>440</v>
+      </c>
       <c r="E441" s="4"/>
       <c r="F441" s="5" t="s">
         <v>409</v>
@@ -25237,7 +26565,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="442" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D442">
+        <v>441</v>
+      </c>
       <c r="E442" s="4"/>
       <c r="F442" s="5" t="s">
         <v>409</v>
@@ -25249,7 +26580,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="443" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D443">
+        <v>442</v>
+      </c>
       <c r="E443" s="4"/>
       <c r="F443" s="5" t="s">
         <v>409</v>
@@ -25261,7 +26595,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="444" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D444">
+        <v>443</v>
+      </c>
       <c r="E444" s="4"/>
       <c r="F444" s="5" t="s">
         <v>409</v>
@@ -25273,7 +26610,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="445" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D445">
+        <v>444</v>
+      </c>
       <c r="E445" s="4"/>
       <c r="F445" s="5" t="s">
         <v>409</v>
@@ -25285,7 +26625,10 @@
         <v>420</v>
       </c>
     </row>
-    <row r="446" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D446">
+        <v>445</v>
+      </c>
       <c r="E446" s="4"/>
       <c r="F446" s="5" t="s">
         <v>409</v>
@@ -25297,7 +26640,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="447" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D447">
+        <v>446</v>
+      </c>
       <c r="E447" s="4"/>
       <c r="F447" s="5" t="s">
         <v>409</v>
@@ -25309,7 +26655,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="448" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D448">
+        <v>447</v>
+      </c>
       <c r="E448" s="4"/>
       <c r="F448" s="5" t="s">
         <v>409</v>
@@ -25321,7 +26670,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="449" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D449">
+        <v>448</v>
+      </c>
       <c r="E449" s="4"/>
       <c r="F449" s="5" t="s">
         <v>409</v>
@@ -25333,7 +26685,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="450" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D450">
+        <v>449</v>
+      </c>
       <c r="E450" s="4"/>
       <c r="F450" s="5" t="s">
         <v>432</v>
@@ -25345,7 +26700,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="451" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D451">
+        <v>450</v>
+      </c>
       <c r="E451" s="4"/>
       <c r="F451" s="5" t="s">
         <v>433</v>
@@ -25357,7 +26715,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="452" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D452">
+        <v>451</v>
+      </c>
       <c r="E452" s="4"/>
       <c r="F452" s="5" t="s">
         <v>433</v>
@@ -25369,7 +26730,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="453" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D453">
+        <v>452</v>
+      </c>
       <c r="E453" s="4"/>
       <c r="F453" s="5" t="s">
         <v>433</v>
@@ -25381,7 +26745,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="454" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D454">
+        <v>453</v>
+      </c>
       <c r="E454" s="4"/>
       <c r="F454" s="5" t="s">
         <v>433</v>
@@ -25393,7 +26760,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="455" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D455">
+        <v>454</v>
+      </c>
       <c r="E455" s="4"/>
       <c r="F455" s="5" t="s">
         <v>436</v>
@@ -25405,7 +26775,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="456" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D456">
+        <v>455</v>
+      </c>
       <c r="E456" s="4"/>
       <c r="F456" s="5" t="s">
         <v>436</v>
@@ -25417,7 +26790,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="457" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D457">
+        <v>456</v>
+      </c>
       <c r="E457" s="4"/>
       <c r="F457" s="5" t="s">
         <v>437</v>
@@ -25429,7 +26805,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="458" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D458">
+        <v>457</v>
+      </c>
       <c r="E458" s="4"/>
       <c r="F458" s="5" t="s">
         <v>438</v>
@@ -25441,7 +26820,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="459" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D459">
+        <v>458</v>
+      </c>
       <c r="E459" s="4"/>
       <c r="F459" s="5" t="s">
         <v>440</v>
@@ -25453,7 +26835,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="460" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D460">
+        <v>459</v>
+      </c>
       <c r="E460" s="4"/>
       <c r="F460" s="5" t="s">
         <v>440</v>
@@ -25465,7 +26850,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="461" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D461">
+        <v>460</v>
+      </c>
       <c r="E461" s="4"/>
       <c r="F461" s="5" t="s">
         <v>441</v>
@@ -25477,7 +26865,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="462" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D462">
+        <v>461</v>
+      </c>
       <c r="E462" s="4"/>
       <c r="F462" s="5" t="s">
         <v>441</v>
@@ -25489,7 +26880,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="463" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D463">
+        <v>462</v>
+      </c>
       <c r="E463" s="4"/>
       <c r="F463" s="5" t="s">
         <v>442</v>
@@ -25501,7 +26895,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="464" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D464">
+        <v>463</v>
+      </c>
       <c r="E464" s="4"/>
       <c r="F464" s="5" t="s">
         <v>442</v>
@@ -25513,7 +26910,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="465" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D465">
+        <v>464</v>
+      </c>
       <c r="E465" s="4"/>
       <c r="F465" s="5" t="s">
         <v>439</v>
@@ -25525,7 +26925,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="466" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D466">
+        <v>465</v>
+      </c>
       <c r="E466" s="4"/>
       <c r="F466" s="5" t="s">
         <v>439</v>
@@ -25537,7 +26940,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="467" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D467">
+        <v>466</v>
+      </c>
       <c r="E467" s="4"/>
       <c r="F467" s="5" t="s">
         <v>439</v>
@@ -25549,7 +26955,10 @@
         <v>430</v>
       </c>
     </row>
-    <row r="468" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D468">
+        <v>467</v>
+      </c>
       <c r="E468" s="4"/>
       <c r="F468" s="5" t="s">
         <v>444</v>
@@ -25561,7 +26970,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="469" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D469">
+        <v>468</v>
+      </c>
       <c r="E469" s="4"/>
       <c r="F469" s="5" t="s">
         <v>444</v>
@@ -25573,7 +26985,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="470" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D470">
+        <v>469</v>
+      </c>
       <c r="E470" s="4"/>
       <c r="F470" s="5" t="s">
         <v>446</v>
@@ -25585,7 +27000,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="471" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D471">
+        <v>470</v>
+      </c>
       <c r="E471" s="4"/>
       <c r="F471" s="5" t="s">
         <v>447</v>
@@ -25597,7 +27015,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="472" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D472">
+        <v>471</v>
+      </c>
       <c r="E472" s="4"/>
       <c r="F472" s="5" t="s">
         <v>449</v>
@@ -25609,7 +27030,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="473" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D473">
+        <v>472</v>
+      </c>
       <c r="E473" s="4"/>
       <c r="F473" s="5" t="s">
         <v>451</v>
@@ -25621,7 +27045,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="474" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D474">
+        <v>473</v>
+      </c>
       <c r="E474" s="4"/>
       <c r="F474" s="5" t="s">
         <v>452</v>
@@ -25633,7 +27060,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="475" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D475">
+        <v>474</v>
+      </c>
       <c r="E475" s="4"/>
       <c r="F475" s="5" t="s">
         <v>454</v>
@@ -25645,7 +27075,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="476" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D476">
+        <v>475</v>
+      </c>
       <c r="E476" s="4"/>
       <c r="F476" s="5" t="s">
         <v>456</v>
@@ -25657,7 +27090,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="477" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D477">
+        <v>476</v>
+      </c>
       <c r="E477" s="4"/>
       <c r="F477" s="5" t="s">
         <v>457</v>
@@ -25669,7 +27105,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="478" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D478">
+        <v>477</v>
+      </c>
       <c r="E478" s="4"/>
       <c r="F478" s="5" t="s">
         <v>458</v>
@@ -25681,7 +27120,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="479" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D479">
+        <v>478</v>
+      </c>
       <c r="E479" s="4"/>
       <c r="F479" s="5" t="s">
         <v>459</v>
@@ -25693,7 +27135,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="480" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D480">
+        <v>479</v>
+      </c>
       <c r="E480" s="4"/>
       <c r="F480" s="5" t="s">
         <v>460</v>
@@ -25705,7 +27150,10 @@
         <v>391</v>
       </c>
     </row>
-    <row r="481" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D481">
+        <v>480</v>
+      </c>
       <c r="E481" s="4"/>
       <c r="F481" s="5" t="s">
         <v>460</v>
@@ -25717,7 +27165,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="482" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D482">
+        <v>481</v>
+      </c>
       <c r="E482" s="4"/>
       <c r="F482" s="5" t="s">
         <v>460</v>
@@ -25729,7 +27180,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="483" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D483">
+        <v>482</v>
+      </c>
       <c r="E483" s="4"/>
       <c r="F483" s="5" t="s">
         <v>460</v>
@@ -25741,7 +27195,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="484" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D484">
+        <v>483</v>
+      </c>
       <c r="E484" s="4"/>
       <c r="F484" s="5" t="s">
         <v>460</v>
@@ -25753,7 +27210,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="485" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D485">
+        <v>484</v>
+      </c>
       <c r="E485" s="4"/>
       <c r="F485" s="5" t="s">
         <v>460</v>
@@ -25765,7 +27225,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="486" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D486">
+        <v>485</v>
+      </c>
       <c r="E486" s="4"/>
       <c r="F486" s="5" t="s">
         <v>460</v>
@@ -25777,7 +27240,10 @@
         <v>214</v>
       </c>
     </row>
-    <row r="487" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D487">
+        <v>486</v>
+      </c>
       <c r="E487" s="4"/>
       <c r="F487" s="5" t="s">
         <v>460</v>
@@ -25789,7 +27255,10 @@
         <v>445</v>
       </c>
     </row>
-    <row r="488" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D488">
+        <v>487</v>
+      </c>
       <c r="E488" s="4"/>
       <c r="F488" s="5" t="s">
         <v>460</v>
@@ -25801,7 +27270,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="489" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D489">
+        <v>488</v>
+      </c>
       <c r="E489" s="4"/>
       <c r="F489" s="5" t="s">
         <v>460</v>
@@ -25813,7 +27285,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="490" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D490">
+        <v>489</v>
+      </c>
       <c r="E490" s="4"/>
       <c r="F490" s="5" t="s">
         <v>460</v>
@@ -25825,7 +27300,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="491" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D491">
+        <v>490</v>
+      </c>
       <c r="E491" s="4"/>
       <c r="F491" s="5" t="s">
         <v>460</v>
@@ -25837,7 +27315,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="492" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D492">
+        <v>491</v>
+      </c>
       <c r="E492" s="4"/>
       <c r="F492" s="5" t="s">
         <v>460</v>
@@ -25849,7 +27330,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="493" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D493">
+        <v>492</v>
+      </c>
       <c r="E493" s="4"/>
       <c r="F493" s="5" t="s">
         <v>460</v>
@@ -25861,7 +27345,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="494" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D494">
+        <v>493</v>
+      </c>
       <c r="E494" s="4"/>
       <c r="F494" s="5" t="s">
         <v>460</v>
@@ -25873,7 +27360,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="495" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D495">
+        <v>494</v>
+      </c>
       <c r="E495" s="4"/>
       <c r="F495" s="5" t="s">
         <v>460</v>
@@ -25885,7 +27375,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="496" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D496">
+        <v>495</v>
+      </c>
       <c r="E496" s="4"/>
       <c r="F496" s="5" t="s">
         <v>466</v>
@@ -25897,7 +27390,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="497" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D497">
+        <v>496</v>
+      </c>
       <c r="E497" s="4"/>
       <c r="F497" s="5" t="s">
         <v>467</v>
@@ -25909,7 +27405,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="498" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D498">
+        <v>497</v>
+      </c>
       <c r="E498" s="4"/>
       <c r="F498" s="5" t="s">
         <v>469</v>
@@ -25921,7 +27420,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="499" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D499">
+        <v>498</v>
+      </c>
       <c r="E499" s="4"/>
       <c r="F499" s="5" t="s">
         <v>471</v>
@@ -25933,7 +27435,10 @@
         <v>472</v>
       </c>
     </row>
-    <row r="500" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D500">
+        <v>499</v>
+      </c>
       <c r="E500" s="4"/>
       <c r="F500" s="5" t="s">
         <v>473</v>
@@ -25945,7 +27450,10 @@
         <v>184</v>
       </c>
     </row>
-    <row r="501" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D501">
+        <v>500</v>
+      </c>
       <c r="E501" s="4"/>
       <c r="F501" s="5" t="s">
         <v>473</v>
@@ -25957,7 +27465,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="502" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D502">
+        <v>501</v>
+      </c>
       <c r="E502" s="4"/>
       <c r="F502" s="5" t="s">
         <v>653</v>
@@ -25969,7 +27480,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="503" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D503">
+        <v>502</v>
+      </c>
       <c r="E503" s="4"/>
       <c r="F503" s="5" t="s">
         <v>653</v>
@@ -25981,7 +27495,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="504" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D504">
+        <v>503</v>
+      </c>
       <c r="E504" s="4"/>
       <c r="F504" s="5" t="s">
         <v>653</v>
@@ -25993,7 +27510,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="505" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D505">
+        <v>504</v>
+      </c>
       <c r="E505" s="4"/>
       <c r="F505" s="5" t="s">
         <v>653</v>
@@ -26005,7 +27525,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="506" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D506">
+        <v>505</v>
+      </c>
       <c r="E506" s="4"/>
       <c r="F506" s="5" t="s">
         <v>470</v>
@@ -26017,7 +27540,10 @@
         <v>274</v>
       </c>
     </row>
-    <row r="507" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D507">
+        <v>506</v>
+      </c>
       <c r="E507" s="4"/>
       <c r="F507" s="5" t="s">
         <v>470</v>
@@ -26029,7 +27555,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="508" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D508">
+        <v>507</v>
+      </c>
       <c r="E508" s="4"/>
       <c r="F508" s="5" t="s">
         <v>470</v>
@@ -26041,7 +27570,10 @@
         <v>275</v>
       </c>
     </row>
-    <row r="509" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D509">
+        <v>508</v>
+      </c>
       <c r="E509" s="4"/>
       <c r="F509" s="5" t="s">
         <v>479</v>
@@ -26053,7 +27585,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="510" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D510">
+        <v>509</v>
+      </c>
       <c r="E510" s="4"/>
       <c r="F510" s="5" t="s">
         <v>479</v>
@@ -26065,7 +27600,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="511" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D511">
+        <v>510</v>
+      </c>
       <c r="E511" s="4"/>
       <c r="F511" s="5" t="s">
         <v>480</v>
@@ -26077,7 +27615,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="512" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D512">
+        <v>511</v>
+      </c>
       <c r="E512" s="4"/>
       <c r="F512" s="5" t="s">
         <v>481</v>
@@ -26089,7 +27630,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="513" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D513">
+        <v>512</v>
+      </c>
       <c r="E513" s="4"/>
       <c r="F513" s="5" t="s">
         <v>483</v>
@@ -26101,7 +27645,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="514" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D514">
+        <v>513</v>
+      </c>
       <c r="E514" s="4"/>
       <c r="F514" s="5" t="s">
         <v>484</v>
@@ -26113,7 +27660,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="515" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D515">
+        <v>514</v>
+      </c>
       <c r="E515" s="4"/>
       <c r="F515" s="5" t="s">
         <v>487</v>
@@ -26125,7 +27675,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="516" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D516">
+        <v>515</v>
+      </c>
       <c r="E516" s="4"/>
       <c r="F516" s="5" t="s">
         <v>488</v>
@@ -26137,7 +27690,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="517" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D517">
+        <v>516</v>
+      </c>
       <c r="E517" s="4"/>
       <c r="F517" s="5" t="s">
         <v>489</v>
@@ -26149,7 +27705,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="518" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D518">
+        <v>517</v>
+      </c>
       <c r="E518" s="4"/>
       <c r="F518" s="5" t="s">
         <v>490</v>
@@ -26161,7 +27720,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="519" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D519">
+        <v>518</v>
+      </c>
       <c r="E519" s="4"/>
       <c r="F519" s="5" t="s">
         <v>491</v>
@@ -26173,7 +27735,10 @@
         <v>485</v>
       </c>
     </row>
-    <row r="520" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D520">
+        <v>519</v>
+      </c>
       <c r="E520" s="4"/>
       <c r="F520" s="5" t="s">
         <v>492</v>
@@ -26185,7 +27750,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D521">
+        <v>520</v>
+      </c>
       <c r="E521" s="4"/>
       <c r="F521" s="5" t="s">
         <v>492</v>
@@ -26197,7 +27765,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="522" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D522">
+        <v>521</v>
+      </c>
       <c r="E522" s="4"/>
       <c r="F522" s="5" t="s">
         <v>495</v>
@@ -26209,7 +27780,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="523" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D523">
+        <v>522</v>
+      </c>
       <c r="E523" s="4"/>
       <c r="F523" s="5" t="s">
         <v>496</v>
@@ -26221,7 +27795,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="524" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D524">
+        <v>523</v>
+      </c>
       <c r="E524" s="4"/>
       <c r="F524" s="5" t="s">
         <v>497</v>
@@ -26233,7 +27810,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="525" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D525">
+        <v>524</v>
+      </c>
       <c r="E525" s="4"/>
       <c r="F525" s="5" t="s">
         <v>498</v>
@@ -26245,7 +27825,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="526" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D526">
+        <v>525</v>
+      </c>
       <c r="E526" s="4"/>
       <c r="F526" s="5" t="s">
         <v>499</v>
@@ -26257,7 +27840,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="527" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D527">
+        <v>526</v>
+      </c>
       <c r="E527" s="4"/>
       <c r="F527" s="5" t="s">
         <v>500</v>
@@ -26269,7 +27855,10 @@
         <v>493</v>
       </c>
     </row>
-    <row r="528" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D528">
+        <v>527</v>
+      </c>
       <c r="E528" s="4"/>
       <c r="F528" s="5" t="s">
         <v>501</v>
@@ -26281,7 +27870,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="529" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D529">
+        <v>528</v>
+      </c>
       <c r="E529" s="4"/>
       <c r="F529" s="5" t="s">
         <v>502</v>
@@ -26293,7 +27885,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="530" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D530">
+        <v>529</v>
+      </c>
       <c r="E530" s="4"/>
       <c r="F530" s="5" t="s">
         <v>503</v>
@@ -26305,7 +27900,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="531" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D531">
+        <v>530</v>
+      </c>
       <c r="E531" s="4"/>
       <c r="F531" s="5" t="s">
         <v>504</v>
@@ -26317,7 +27915,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="532" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D532">
+        <v>531</v>
+      </c>
       <c r="E532" s="4"/>
       <c r="F532" s="5" t="s">
         <v>505</v>
@@ -26329,7 +27930,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="533" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D533">
+        <v>532</v>
+      </c>
       <c r="E533" s="4"/>
       <c r="F533" s="5" t="s">
         <v>507</v>
@@ -26341,7 +27945,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="534" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D534">
+        <v>533</v>
+      </c>
       <c r="E534" s="4"/>
       <c r="F534" s="5" t="s">
         <v>509</v>
@@ -26353,7 +27960,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="535" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D535">
+        <v>534</v>
+      </c>
       <c r="E535" s="4"/>
       <c r="F535" s="5" t="s">
         <v>510</v>
@@ -26365,7 +27975,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="536" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D536">
+        <v>535</v>
+      </c>
       <c r="E536" s="4"/>
       <c r="F536" s="5" t="s">
         <v>511</v>
@@ -26377,7 +27990,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="537" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D537">
+        <v>536</v>
+      </c>
       <c r="E537" s="4"/>
       <c r="F537" s="5" t="s">
         <v>512</v>
@@ -26389,7 +28005,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="538" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D538">
+        <v>537</v>
+      </c>
       <c r="E538" s="4"/>
       <c r="F538" s="5" t="s">
         <v>506</v>
@@ -26401,7 +28020,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="539" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D539">
+        <v>538</v>
+      </c>
       <c r="E539" s="4"/>
       <c r="F539" s="5" t="s">
         <v>513</v>
@@ -26413,7 +28035,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="540" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D540">
+        <v>539</v>
+      </c>
       <c r="E540" s="4"/>
       <c r="F540" s="5" t="s">
         <v>514</v>
@@ -26425,7 +28050,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="541" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D541">
+        <v>540</v>
+      </c>
       <c r="E541" s="4"/>
       <c r="F541" s="5" t="s">
         <v>515</v>
@@ -26437,7 +28065,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="542" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D542">
+        <v>541</v>
+      </c>
       <c r="E542" s="4"/>
       <c r="F542" s="5" t="s">
         <v>516</v>
@@ -26449,7 +28080,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="543" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D543">
+        <v>542</v>
+      </c>
       <c r="E543" s="4"/>
       <c r="F543" s="5" t="s">
         <v>517</v>
@@ -26461,7 +28095,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="544" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D544">
+        <v>543</v>
+      </c>
       <c r="E544" s="4"/>
       <c r="F544" s="5" t="s">
         <v>518</v>
@@ -26473,7 +28110,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="545" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D545">
+        <v>544</v>
+      </c>
       <c r="E545" s="4"/>
       <c r="F545" s="5" t="s">
         <v>519</v>
@@ -26485,7 +28125,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="546" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D546">
+        <v>545</v>
+      </c>
       <c r="E546" s="4"/>
       <c r="F546" s="5" t="s">
         <v>520</v>
@@ -26497,7 +28140,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="547" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D547">
+        <v>546</v>
+      </c>
       <c r="E547" s="4"/>
       <c r="F547" s="5" t="s">
         <v>521</v>
@@ -26509,7 +28155,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="548" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D548">
+        <v>547</v>
+      </c>
       <c r="E548" s="4"/>
       <c r="F548" s="5" t="s">
         <v>522</v>
@@ -26521,7 +28170,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="549" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D549">
+        <v>548</v>
+      </c>
       <c r="E549" s="4"/>
       <c r="F549" s="5" t="s">
         <v>523</v>
@@ -26533,7 +28185,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="550" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D550">
+        <v>549</v>
+      </c>
       <c r="E550" s="4"/>
       <c r="F550" s="5" t="s">
         <v>524</v>
@@ -26545,7 +28200,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="551" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D551">
+        <v>550</v>
+      </c>
       <c r="E551" s="4"/>
       <c r="F551" s="5" t="s">
         <v>525</v>
@@ -26557,7 +28215,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="552" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D552">
+        <v>551</v>
+      </c>
       <c r="E552" s="4"/>
       <c r="F552" s="5" t="s">
         <v>526</v>
@@ -26569,7 +28230,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="553" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D553">
+        <v>552</v>
+      </c>
       <c r="E553" s="4"/>
       <c r="F553" s="5" t="s">
         <v>527</v>
@@ -26581,7 +28245,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="554" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D554">
+        <v>553</v>
+      </c>
       <c r="E554" s="4"/>
       <c r="F554" s="5" t="s">
         <v>528</v>
@@ -26593,7 +28260,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="555" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D555">
+        <v>554</v>
+      </c>
       <c r="E555" s="4"/>
       <c r="F555" s="5" t="s">
         <v>530</v>
@@ -26605,7 +28275,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="556" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D556">
+        <v>555</v>
+      </c>
       <c r="E556" s="4"/>
       <c r="F556" s="5" t="s">
         <v>532</v>
@@ -26617,7 +28290,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="557" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D557">
+        <v>556</v>
+      </c>
       <c r="E557" s="4"/>
       <c r="F557" s="5" t="s">
         <v>533</v>
@@ -26629,7 +28305,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="558" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D558">
+        <v>557</v>
+      </c>
       <c r="E558" s="4"/>
       <c r="F558" s="5" t="s">
         <v>534</v>
@@ -26641,7 +28320,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="559" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D559">
+        <v>558</v>
+      </c>
       <c r="E559" s="4"/>
       <c r="F559" s="5" t="s">
         <v>535</v>
@@ -26653,7 +28335,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="560" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D560">
+        <v>559</v>
+      </c>
       <c r="E560" s="4"/>
       <c r="F560" s="5" t="s">
         <v>529</v>
@@ -26665,7 +28350,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="561" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D561">
+        <v>560</v>
+      </c>
       <c r="E561" s="4"/>
       <c r="F561" s="5" t="s">
         <v>529</v>
@@ -26677,7 +28365,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="562" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D562">
+        <v>561</v>
+      </c>
       <c r="E562" s="4"/>
       <c r="F562" s="5" t="s">
         <v>536</v>
@@ -26689,7 +28380,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="563" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D563">
+        <v>562</v>
+      </c>
       <c r="E563" s="4"/>
       <c r="F563" s="5" t="s">
         <v>537</v>
@@ -26701,7 +28395,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="564" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D564">
+        <v>563</v>
+      </c>
       <c r="E564" s="4"/>
       <c r="F564" s="5" t="s">
         <v>539</v>
@@ -26713,7 +28410,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="565" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D565">
+        <v>564</v>
+      </c>
       <c r="E565" s="4"/>
       <c r="F565" s="5" t="s">
         <v>539</v>
@@ -26725,7 +28425,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="566" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D566">
+        <v>565</v>
+      </c>
       <c r="E566" s="4"/>
       <c r="F566" s="5" t="s">
         <v>543</v>
@@ -26737,7 +28440,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="567" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D567">
+        <v>566</v>
+      </c>
       <c r="E567" s="4"/>
       <c r="F567" s="5" t="s">
         <v>543</v>
@@ -26749,7 +28455,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="568" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D568">
+        <v>567</v>
+      </c>
       <c r="E568" s="4"/>
       <c r="F568" s="5" t="s">
         <v>543</v>
@@ -26761,7 +28470,10 @@
         <v>178</v>
       </c>
     </row>
-    <row r="569" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D569">
+        <v>568</v>
+      </c>
       <c r="E569" s="8"/>
       <c r="F569" s="9" t="s">
         <v>544</v>
@@ -26773,7 +28485,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="570" spans="5:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D570">
+        <v>569</v>
+      </c>
       <c r="E570" s="11"/>
       <c r="F570" s="12" t="s">
         <v>545</v>
@@ -26785,7 +28500,10 @@
         <v>546</v>
       </c>
     </row>
-    <row r="571" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D571">
+        <v>570</v>
+      </c>
       <c r="E571" s="4"/>
       <c r="F571" s="5" t="s">
         <v>548</v>
@@ -26797,7 +28515,10 @@
         <v>550</v>
       </c>
     </row>
-    <row r="572" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D572">
+        <v>571</v>
+      </c>
       <c r="E572" s="4"/>
       <c r="F572" s="5" t="s">
         <v>548</v>
@@ -26809,7 +28530,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="573" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D573">
+        <v>572</v>
+      </c>
       <c r="E573" s="4"/>
       <c r="F573" s="5" t="s">
         <v>553</v>
@@ -26821,7 +28545,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="574" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D574">
+        <v>573</v>
+      </c>
       <c r="E574" s="4"/>
       <c r="F574" s="5" t="s">
         <v>553</v>
@@ -26833,7 +28560,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="575" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D575">
+        <v>574</v>
+      </c>
       <c r="E575" s="4"/>
       <c r="F575" s="5" t="s">
         <v>553</v>
@@ -26845,7 +28575,10 @@
         <v>556</v>
       </c>
     </row>
-    <row r="576" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D576">
+        <v>575</v>
+      </c>
       <c r="E576" s="4"/>
       <c r="F576" s="5" t="s">
         <v>558</v>
@@ -26857,7 +28590,10 @@
         <v>559</v>
       </c>
     </row>
-    <row r="577" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D577">
+        <v>576</v>
+      </c>
       <c r="E577" s="4"/>
       <c r="F577" s="5" t="s">
         <v>560</v>
@@ -26869,7 +28605,10 @@
         <v>559</v>
       </c>
     </row>
-    <row r="578" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D578">
+        <v>577</v>
+      </c>
       <c r="E578" s="4"/>
       <c r="F578" s="5" t="s">
         <v>557</v>
@@ -26881,7 +28620,10 @@
         <v>559</v>
       </c>
     </row>
-    <row r="579" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D579">
+        <v>578</v>
+      </c>
       <c r="E579" s="4"/>
       <c r="F579" s="5" t="s">
         <v>562</v>
@@ -26893,7 +28635,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="580" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D580">
+        <v>579</v>
+      </c>
       <c r="E580" s="4"/>
       <c r="F580" s="5" t="s">
         <v>563</v>
@@ -26905,7 +28650,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="581" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D581">
+        <v>580</v>
+      </c>
       <c r="E581" s="4"/>
       <c r="F581" s="5" t="s">
         <v>565</v>
@@ -26917,7 +28665,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="582" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D582">
+        <v>581</v>
+      </c>
       <c r="E582" s="4"/>
       <c r="F582" s="5" t="s">
         <v>566</v>
@@ -26929,7 +28680,10 @@
         <v>551</v>
       </c>
     </row>
-    <row r="583" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D583">
+        <v>582</v>
+      </c>
       <c r="E583" s="4"/>
       <c r="F583" s="5" t="s">
         <v>567</v>
@@ -26941,7 +28695,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="584" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D584">
+        <v>583</v>
+      </c>
       <c r="E584" s="4"/>
       <c r="F584" s="5" t="s">
         <v>569</v>
@@ -26953,7 +28710,10 @@
         <v>570</v>
       </c>
     </row>
-    <row r="585" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D585">
+        <v>584</v>
+      </c>
       <c r="E585" s="4"/>
       <c r="F585" s="5" t="s">
         <v>569</v>
@@ -26965,7 +28725,10 @@
         <v>570</v>
       </c>
     </row>
-    <row r="586" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D586">
+        <v>585</v>
+      </c>
       <c r="E586" s="4"/>
       <c r="F586" s="5" t="s">
         <v>572</v>
@@ -26977,7 +28740,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="587" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D587">
+        <v>586</v>
+      </c>
       <c r="E587" s="4"/>
       <c r="F587" s="5" t="s">
         <v>574</v>
@@ -26989,7 +28755,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="588" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D588">
+        <v>587</v>
+      </c>
       <c r="E588" s="4"/>
       <c r="F588" s="5" t="s">
         <v>575</v>
@@ -27001,7 +28770,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="589" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D589">
+        <v>588</v>
+      </c>
       <c r="E589" s="4"/>
       <c r="F589" s="5" t="s">
         <v>575</v>
@@ -27013,7 +28785,10 @@
         <v>579</v>
       </c>
     </row>
-    <row r="590" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D590">
+        <v>589</v>
+      </c>
       <c r="E590" s="4"/>
       <c r="F590" s="5" t="s">
         <v>575</v>
@@ -27025,7 +28800,10 @@
         <v>579</v>
       </c>
     </row>
-    <row r="591" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D591">
+        <v>590</v>
+      </c>
       <c r="E591" s="4"/>
       <c r="F591" s="5" t="s">
         <v>575</v>
@@ -27037,7 +28815,10 @@
         <v>579</v>
       </c>
     </row>
-    <row r="592" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D592">
+        <v>591</v>
+      </c>
       <c r="E592" s="4"/>
       <c r="F592" s="5" t="s">
         <v>582</v>
@@ -27049,7 +28830,10 @@
         <v>583</v>
       </c>
     </row>
-    <row r="593" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D593">
+        <v>592</v>
+      </c>
       <c r="E593" s="4"/>
       <c r="F593" s="5" t="s">
         <v>582</v>
@@ -27061,7 +28845,10 @@
         <v>583</v>
       </c>
     </row>
-    <row r="594" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D594">
+        <v>593</v>
+      </c>
       <c r="E594" s="4"/>
       <c r="F594" s="5" t="s">
         <v>585</v>
@@ -27073,7 +28860,10 @@
         <v>586</v>
       </c>
     </row>
-    <row r="595" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D595">
+        <v>594</v>
+      </c>
       <c r="E595" s="4"/>
       <c r="F595" s="5" t="s">
         <v>585</v>
@@ -27085,7 +28875,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="596" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D596">
+        <v>595</v>
+      </c>
       <c r="E596" s="4"/>
       <c r="F596" s="5" t="s">
         <v>585</v>
@@ -27097,7 +28890,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="597" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D597">
+        <v>596</v>
+      </c>
       <c r="E597" s="4"/>
       <c r="F597" s="5" t="s">
         <v>589</v>
@@ -27109,7 +28905,10 @@
         <v>586</v>
       </c>
     </row>
-    <row r="598" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D598">
+        <v>597</v>
+      </c>
       <c r="E598" s="4"/>
       <c r="F598" s="5" t="s">
         <v>589</v>
@@ -27121,7 +28920,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="599" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D599">
+        <v>598</v>
+      </c>
       <c r="E599" s="4"/>
       <c r="F599" s="5" t="s">
         <v>589</v>
@@ -27133,7 +28935,10 @@
         <v>587</v>
       </c>
     </row>
-    <row r="600" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D600">
+        <v>599</v>
+      </c>
       <c r="E600" s="4"/>
       <c r="F600" s="5" t="s">
         <v>591</v>
@@ -27145,7 +28950,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="601" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D601">
+        <v>600</v>
+      </c>
       <c r="E601" s="4"/>
       <c r="F601" s="5" t="s">
         <v>592</v>
@@ -27157,7 +28965,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="602" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D602">
+        <v>601</v>
+      </c>
       <c r="E602" s="4"/>
       <c r="F602" s="5" t="s">
         <v>593</v>
@@ -27169,7 +28980,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="603" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D603">
+        <v>602</v>
+      </c>
       <c r="E603" s="4"/>
       <c r="F603" s="5" t="s">
         <v>590</v>
@@ -27181,7 +28995,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="604" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D604">
+        <v>603</v>
+      </c>
       <c r="E604" s="4"/>
       <c r="F604" s="5" t="s">
         <v>594</v>
@@ -27193,7 +29010,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="605" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D605">
+        <v>604</v>
+      </c>
       <c r="E605" s="4"/>
       <c r="F605" s="5" t="s">
         <v>595</v>
@@ -27205,7 +29025,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="606" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D606">
+        <v>605</v>
+      </c>
       <c r="E606" s="4"/>
       <c r="F606" s="5" t="s">
         <v>596</v>
@@ -27217,7 +29040,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="607" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D607">
+        <v>606</v>
+      </c>
       <c r="E607" s="4"/>
       <c r="F607" s="5" t="s">
         <v>590</v>
@@ -27229,7 +29055,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="608" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D608">
+        <v>607</v>
+      </c>
       <c r="E608" s="4"/>
       <c r="F608" s="5" t="s">
         <v>598</v>
@@ -27241,7 +29070,10 @@
         <v>559</v>
       </c>
     </row>
-    <row r="609" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D609">
+        <v>608</v>
+      </c>
       <c r="E609" s="4"/>
       <c r="F609" s="5" t="s">
         <v>599</v>
@@ -27253,7 +29085,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="610" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D610">
+        <v>609</v>
+      </c>
       <c r="E610" s="8"/>
       <c r="F610" s="9" t="s">
         <v>600</v>
@@ -27265,7 +29100,10 @@
         <v>573</v>
       </c>
     </row>
-    <row r="611" spans="5:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D611">
+        <v>610</v>
+      </c>
       <c r="E611" s="11"/>
       <c r="F611" s="12" t="s">
         <v>602</v>
@@ -27277,7 +29115,10 @@
         <v>603</v>
       </c>
     </row>
-    <row r="612" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D612">
+        <v>611</v>
+      </c>
       <c r="E612" s="4"/>
       <c r="F612" s="5" t="s">
         <v>605</v>
@@ -27289,7 +29130,10 @@
         <v>603</v>
       </c>
     </row>
-    <row r="613" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D613">
+        <v>612</v>
+      </c>
       <c r="E613" s="4"/>
       <c r="F613" s="5" t="s">
         <v>606</v>
@@ -27301,7 +29145,10 @@
         <v>603</v>
       </c>
     </row>
-    <row r="614" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D614">
+        <v>613</v>
+      </c>
       <c r="E614" s="4"/>
       <c r="F614" s="5" t="s">
         <v>608</v>
@@ -27313,7 +29160,10 @@
         <v>610</v>
       </c>
     </row>
-    <row r="615" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D615">
+        <v>614</v>
+      </c>
       <c r="E615" s="4"/>
       <c r="F615" s="5" t="s">
         <v>608</v>
@@ -27325,7 +29175,10 @@
         <v>610</v>
       </c>
     </row>
-    <row r="616" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D616">
+        <v>615</v>
+      </c>
       <c r="E616" s="4"/>
       <c r="F616" s="5" t="s">
         <v>613</v>
@@ -27337,7 +29190,10 @@
         <v>603</v>
       </c>
     </row>
-    <row r="617" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D617">
+        <v>616</v>
+      </c>
       <c r="E617" s="4"/>
       <c r="F617" s="5" t="s">
         <v>612</v>
@@ -27349,7 +29205,10 @@
         <v>603</v>
       </c>
     </row>
-    <row r="618" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D618">
+        <v>617</v>
+      </c>
       <c r="E618" s="8"/>
       <c r="F618" s="9" t="s">
         <v>614</v>
@@ -27361,7 +29220,10 @@
         <v>603</v>
       </c>
     </row>
-    <row r="619" spans="5:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D619">
+        <v>618</v>
+      </c>
       <c r="E619" s="11"/>
       <c r="F619" s="12" t="s">
         <v>615</v>
@@ -27373,7 +29235,10 @@
         <v>616</v>
       </c>
     </row>
-    <row r="620" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D620">
+        <v>619</v>
+      </c>
       <c r="E620" s="8"/>
       <c r="F620" s="9" t="s">
         <v>617</v>
@@ -27385,7 +29250,10 @@
         <v>616</v>
       </c>
     </row>
-    <row r="621" spans="5:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D621">
+        <v>620</v>
+      </c>
       <c r="E621" s="11"/>
       <c r="F621" s="12" t="s">
         <v>619</v>
@@ -27397,7 +29265,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="622" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D622">
+        <v>621</v>
+      </c>
       <c r="E622" s="4"/>
       <c r="F622" s="5" t="s">
         <v>620</v>
@@ -27409,7 +29280,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="623" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D623">
+        <v>622</v>
+      </c>
       <c r="E623" s="4"/>
       <c r="F623" s="5" t="s">
         <v>621</v>
@@ -27421,7 +29295,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="624" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D624">
+        <v>623</v>
+      </c>
       <c r="E624" s="4"/>
       <c r="F624" s="5" t="s">
         <v>623</v>
@@ -27433,7 +29310,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="625" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D625">
+        <v>624</v>
+      </c>
       <c r="E625" s="4"/>
       <c r="F625" s="5" t="s">
         <v>624</v>
@@ -27445,7 +29325,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="626" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D626">
+        <v>625</v>
+      </c>
       <c r="E626" s="4"/>
       <c r="F626" s="5" t="s">
         <v>625</v>
@@ -27457,7 +29340,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="627" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D627">
+        <v>626</v>
+      </c>
       <c r="E627" s="4"/>
       <c r="F627" s="5" t="s">
         <v>626</v>
@@ -27469,7 +29355,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="628" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D628">
+        <v>627</v>
+      </c>
       <c r="E628" s="4"/>
       <c r="F628" s="5" t="s">
         <v>627</v>
@@ -27481,7 +29370,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="629" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D629">
+        <v>628</v>
+      </c>
       <c r="E629" s="4"/>
       <c r="F629" s="5" t="s">
         <v>622</v>
@@ -27493,7 +29385,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="630" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D630">
+        <v>629</v>
+      </c>
       <c r="E630" s="8"/>
       <c r="F630" s="9" t="s">
         <v>628</v>
@@ -27505,7 +29400,10 @@
         <v>247</v>
       </c>
     </row>
-    <row r="631" spans="5:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D631">
+        <v>630</v>
+      </c>
       <c r="E631" s="11"/>
       <c r="F631" s="12" t="s">
         <v>629</v>
@@ -27517,7 +29415,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="632" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D632">
+        <v>631</v>
+      </c>
       <c r="E632" s="4"/>
       <c r="F632" s="5" t="s">
         <v>630</v>
@@ -27529,7 +29430,10 @@
         <v>68</v>
       </c>
     </row>
-    <row r="633" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D633">
+        <v>632</v>
+      </c>
       <c r="E633" s="4"/>
       <c r="F633" s="5" t="s">
         <v>631</v>
@@ -27541,7 +29445,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="634" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D634">
+        <v>633</v>
+      </c>
       <c r="E634" s="4"/>
       <c r="F634" s="5" t="s">
         <v>632</v>
@@ -27553,7 +29460,10 @@
         <v>634</v>
       </c>
     </row>
-    <row r="635" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D635">
+        <v>634</v>
+      </c>
       <c r="E635" s="4"/>
       <c r="F635" s="5" t="s">
         <v>635</v>
@@ -27565,7 +29475,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D636">
+        <v>635</v>
+      </c>
       <c r="E636" s="4"/>
       <c r="F636" s="5" t="s">
         <v>635</v>
@@ -27577,7 +29490,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="637" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D637">
+        <v>636</v>
+      </c>
       <c r="E637" s="4"/>
       <c r="F637" s="5" t="s">
         <v>635</v>
@@ -27589,7 +29505,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="638" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D638">
+        <v>637</v>
+      </c>
       <c r="E638" s="4"/>
       <c r="F638" s="5" t="s">
         <v>635</v>
@@ -27601,7 +29520,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="639" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D639">
+        <v>638</v>
+      </c>
       <c r="E639" s="4"/>
       <c r="F639" s="5" t="s">
         <v>637</v>
@@ -27613,7 +29535,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="640" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D640">
+        <v>639</v>
+      </c>
       <c r="E640" s="4"/>
       <c r="F640" s="5" t="s">
         <v>638</v>
@@ -27625,7 +29550,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="641" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D641">
+        <v>640</v>
+      </c>
       <c r="E641" s="4"/>
       <c r="F641" s="5" t="s">
         <v>639</v>
@@ -27637,7 +29565,10 @@
         <v>310</v>
       </c>
     </row>
-    <row r="642" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D642">
+        <v>641</v>
+      </c>
       <c r="E642" s="4"/>
       <c r="F642" s="5" t="s">
         <v>640</v>
@@ -27649,7 +29580,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="643" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D643">
+        <v>642</v>
+      </c>
       <c r="E643" s="4"/>
       <c r="F643" s="5" t="s">
         <v>641</v>
@@ -27661,7 +29595,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="644" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D644">
+        <v>643</v>
+      </c>
       <c r="E644" s="4"/>
       <c r="F644" s="5" t="s">
         <v>642</v>
@@ -27673,7 +29610,10 @@
         <v>634</v>
       </c>
     </row>
-    <row r="645" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D645">
+        <v>644</v>
+      </c>
       <c r="E645" s="4"/>
       <c r="F645" s="5" t="s">
         <v>643</v>
@@ -27685,7 +29625,10 @@
         <v>634</v>
       </c>
     </row>
-    <row r="646" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D646">
+        <v>645</v>
+      </c>
       <c r="E646" s="4"/>
       <c r="F646" s="5" t="s">
         <v>643</v>
@@ -27697,7 +29640,10 @@
         <v>634</v>
       </c>
     </row>
-    <row r="647" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D647">
+        <v>646</v>
+      </c>
       <c r="E647" s="4"/>
       <c r="F647" s="5" t="s">
         <v>644</v>
@@ -27709,7 +29655,10 @@
         <v>418</v>
       </c>
     </row>
-    <row r="648" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D648">
+        <v>647</v>
+      </c>
       <c r="E648" s="4"/>
       <c r="F648" s="5" t="s">
         <v>645</v>
@@ -27721,7 +29670,10 @@
         <v>647</v>
       </c>
     </row>
-    <row r="649" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D649">
+        <v>648</v>
+      </c>
       <c r="E649" s="8"/>
       <c r="F649" s="9" t="s">
         <v>648</v>
@@ -27733,7 +29685,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="650" spans="5:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="650" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
